--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D6694B-06F6-411C-B9F2-CBED29C274D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E5F8D7-95F0-4BA9-83C5-348C019AE6CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de Bord" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -1255,6 +1255,9 @@
     <t>Mise à jour:
 - Ajout des MSTG-IDs
 - Couvrage des liens MSTG V1</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
 </sst>
 </file>
@@ -2654,173 +2657,173 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -4101,7 +4104,7 @@
   <dimension ref="B1:D51"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4113,48 +4116,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="169"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="171"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="162"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="169"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="162"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="169"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="171"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="169"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="162"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="172"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="174"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="168"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="131" t="s">
@@ -4164,31 +4167,31 @@
       <c r="D10" s="133"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="178"/>
+      <c r="C11" s="171"/>
       <c r="D11" s="134" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="171" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="178"/>
+      <c r="C12" s="171"/>
       <c r="D12" s="135" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="169" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="177"/>
+      <c r="C13" s="170"/>
       <c r="D13" s="97" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -4198,7 +4201,7 @@
       <c r="C14" s="78"/>
       <c r="D14" s="96" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-mstg/blob/",VERSION_MSTG,"/Document/"))</f>
-        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.2/Document/</v>
+        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4223,55 +4226,55 @@
       <c r="D17" s="97"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="165"/>
+      <c r="C18" s="156"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="156"/>
+      <c r="C19" s="154"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="153" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="156"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="156"/>
+      <c r="C21" s="154"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="153" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="156"/>
+      <c r="C22" s="154"/>
       <c r="D22" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="156"/>
+      <c r="C23" s="154"/>
       <c r="D23" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="158"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="168"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
@@ -4288,37 +4291,37 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="153" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="156"/>
+      <c r="C27" s="154"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="156"/>
+      <c r="C28" s="154"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="156"/>
+      <c r="C29" s="154"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="164"/>
+      <c r="C30" s="181"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="160"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="177"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
@@ -4335,37 +4338,37 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="153" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="156"/>
+      <c r="C34" s="154"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="155" t="s">
+      <c r="B35" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="156"/>
+      <c r="C35" s="154"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="156"/>
+      <c r="C36" s="154"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="161" t="s">
+      <c r="B37" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="162"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="158"/>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="168"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -4375,97 +4378,97 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="152"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="154"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="174"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="150" t="s">
+      <c r="B41" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="151"/>
+      <c r="C41" s="175"/>
       <c r="D41" s="55"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="150" t="s">
+      <c r="B42" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="151"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="55"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="150" t="s">
+      <c r="B43" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="151"/>
+      <c r="C43" s="175"/>
       <c r="D43" s="55"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="150" t="s">
+      <c r="B44" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="151"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="56"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="150" t="s">
+      <c r="B45" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="151"/>
+      <c r="C45" s="175"/>
       <c r="D45" s="55"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="152"/>
-      <c r="C46" s="153"/>
-      <c r="D46" s="154"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="174"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="151"/>
+      <c r="C47" s="175"/>
       <c r="D47" s="55"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="151"/>
+      <c r="C48" s="175"/>
       <c r="D48" s="55"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="150" t="s">
+      <c r="B49" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="151"/>
+      <c r="C49" s="175"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="151"/>
+      <c r="C50" s="175"/>
       <c r="D50" s="56"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="150" t="s">
+      <c r="B51" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="151"/>
+      <c r="C51" s="175"/>
       <c r="D51" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:D40"/>
@@ -4480,16 +4483,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4536,11 +4539,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -4555,16 +4558,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="193" t="s">
+      <c r="G6" s="196" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="194"/>
-      <c r="I6" s="195"/>
-      <c r="V6" s="196" t="s">
+      <c r="H6" s="197"/>
+      <c r="I6" s="198"/>
+      <c r="V6" s="199" t="s">
         <v>236</v>
       </c>
-      <c r="W6" s="197"/>
-      <c r="X6" s="198"/>
+      <c r="W6" s="200"/>
+      <c r="X6" s="201"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -4579,18 +4582,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="184">
+      <c r="G8" s="187">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="186"/>
-      <c r="V8" s="184" t="e">
+      <c r="H8" s="188"/>
+      <c r="I8" s="189"/>
+      <c r="V8" s="187" t="e">
         <f>AVERAGE(K43:K50)*5</f>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="185"/>
-      <c r="X8" s="186"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="189"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
@@ -4598,12 +4601,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="189"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="188"/>
-      <c r="X9" s="189"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="192"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="192"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -4611,12 +4614,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="189"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="188"/>
-      <c r="X10" s="189"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="192"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="191"/>
+      <c r="X10" s="192"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -4624,19 +4627,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="192"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="192"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="195"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="195"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -4660,11 +4663,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
@@ -4717,18 +4720,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="180" t="s">
+      <c r="D41" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="181"/>
-      <c r="F41" s="181"/>
-      <c r="G41" s="182"/>
-      <c r="H41" s="180" t="s">
+      <c r="E41" s="184"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="181"/>
-      <c r="J41" s="181"/>
-      <c r="K41" s="182"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="184"/>
+      <c r="K41" s="185"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
@@ -5087,8 +5090,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5106,16 +5109,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -5147,10 +5150,10 @@
       <c r="G3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="200" t="s">
+      <c r="H3" s="203" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="201"/>
+      <c r="I3" s="204"/>
       <c r="J3" s="80" t="s">
         <v>216</v>
       </c>
@@ -5166,8 +5169,8 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="203"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="206"/>
       <c r="J4" s="30"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
@@ -5217,16 +5220,16 @@
       <c r="H6" s="149" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Injection Flaws")</f>
-        <v>Injection Flaws</v>
+"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
+"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="I6" s="124" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws"),
-"Cross-Site Scripting Flaws")</f>
-        <v>Cross-Site Scripting Flaws</v>
+"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
+"Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="J6" s="65"/>
     </row>
@@ -5418,9 +5421,9 @@
       <c r="H13" s="148" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x05h-Testing-Platform-Interaction.md#testing-enforced-updating"),
-"Testing enforced updating")</f>
-        <v>Testing enforced updating</v>
+"0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
+"Testing enforced updating (MSTG-ARCH-9)")</f>
+        <v>Testing enforced updating (MSTG-ARCH-9)</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
@@ -7458,7 +7461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A59" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -7472,21 +7475,22 @@
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69.58203125" customWidth="1"/>
-    <col min="9" max="10" width="47.9140625" customWidth="1"/>
+    <col min="9" max="9" width="64.08203125" customWidth="1"/>
+    <col min="10" max="10" width="47.9140625" customWidth="1"/>
     <col min="11" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="202" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -7518,10 +7522,10 @@
       <c r="G3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="200" t="s">
+      <c r="H3" s="203" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="201"/>
+      <c r="I3" s="204"/>
       <c r="J3" s="80" t="s">
         <v>216</v>
       </c>
@@ -7537,8 +7541,8 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="203"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="206"/>
       <c r="J4" s="30"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
@@ -7588,16 +7592,16 @@
       <c r="H6" s="148" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Injection Flaws")</f>
-        <v>Injection Flaws</v>
+"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
+"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="I6" s="124" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws"),
-"Cross-Site Scripting Flaws")</f>
-        <v>Cross-Site Scripting Flaws</v>
+"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
+"Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="J6" s="65"/>
     </row>
@@ -7789,9 +7793,9 @@
       <c r="H13" s="148" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#testing-enforced-updating"),
-"Testing enforced updating")</f>
-        <v>Testing enforced updating</v>
+"0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
+"Testing enforced updating (MSTG-ARCH-9)")</f>
+        <v>Testing enforced updating (MSTG-ARCH-9)</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
@@ -9841,8 +9845,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9853,10 +9857,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="207" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="207"/>
       <c r="C1" s="105"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -10215,16 +10219,16 @@
       <c r="A24" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="205" t="s">
+      <c r="B24" s="150" t="s">
         <v>272</v>
       </c>
       <c r="C24" s="114" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="206">
-        <v>43683</v>
-      </c>
-      <c r="E24" s="207" t="s">
+      <c r="D24" s="151">
+        <v>43684</v>
+      </c>
+      <c r="E24" s="152" t="s">
         <v>364</v>
       </c>
     </row>

--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E5F8D7-95F0-4BA9-83C5-348C019AE6CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE1A065-BC9F-4592-9B3B-9487D9A8A0F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de Bord" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -2272,7 +2272,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2504,7 +2504,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2662,14 +2661,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2704,12 +2748,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2719,35 +2757,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2762,33 +2806,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2798,15 +2815,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2824,6 +2832,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -4116,81 +4127,81 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="171" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="176"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="162"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="176"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="162"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="176"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="162"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="176"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="179"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="163"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="183" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="134" t="s">
+      <c r="C11" s="183"/>
+      <c r="D11" s="133" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="183" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="171"/>
-      <c r="D12" s="135" t="str">
+      <c r="C12" s="183"/>
+      <c r="D12" s="134" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="181" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="97" t="s">
+      <c r="C13" s="182"/>
+      <c r="D13" s="96" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4199,82 +4210,82 @@
         <v>235</v>
       </c>
       <c r="C14" s="78"/>
-      <c r="D14" s="96" t="str">
+      <c r="D14" s="95" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-mstg/blob/",VERSION_MSTG,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="98"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="77" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="78"/>
-      <c r="D17" s="97"/>
+      <c r="D17" s="96"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="156"/>
+      <c r="C18" s="170"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="154"/>
+      <c r="C19" s="161"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="154"/>
+      <c r="C20" s="161"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="154"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="154"/>
+      <c r="C22" s="161"/>
       <c r="D22" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="160" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="154"/>
+      <c r="C23" s="161"/>
       <c r="D23" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="168"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="163"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
@@ -4291,37 +4302,37 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="160" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="154"/>
+      <c r="C27" s="161"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="154"/>
+      <c r="C28" s="161"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="154"/>
+      <c r="C29" s="161"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="180" t="s">
+      <c r="B30" s="168" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="181"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
@@ -4338,37 +4349,37 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="160" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="154"/>
+      <c r="C34" s="161"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="154"/>
+      <c r="C35" s="161"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="154"/>
+      <c r="C36" s="161"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="178" t="s">
+      <c r="B37" s="166" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="179"/>
+      <c r="C37" s="167"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="168"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="163"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -4378,97 +4389,97 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="172"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="174"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="159"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="175"/>
+      <c r="C41" s="156"/>
       <c r="D41" s="55"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="175"/>
+      <c r="C42" s="156"/>
       <c r="D42" s="55"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="175"/>
+      <c r="C43" s="156"/>
       <c r="D43" s="55"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="175"/>
+      <c r="C44" s="156"/>
       <c r="D44" s="56"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="175"/>
+      <c r="C45" s="156"/>
       <c r="D45" s="55"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="172"/>
-      <c r="C46" s="173"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="159"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="175"/>
+      <c r="C47" s="156"/>
       <c r="D47" s="55"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="175"/>
+      <c r="C48" s="156"/>
       <c r="D48" s="55"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="175"/>
+      <c r="C49" s="156"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="175"/>
+      <c r="C50" s="156"/>
       <c r="D50" s="56"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="175"/>
+      <c r="C51" s="156"/>
       <c r="D51" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:D40"/>
@@ -4483,16 +4494,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4539,11 +4550,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -4558,16 +4569,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="196" t="s">
+      <c r="G6" s="201" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="198"/>
-      <c r="V6" s="199" t="s">
+      <c r="H6" s="202"/>
+      <c r="I6" s="203"/>
+      <c r="V6" s="184" t="s">
         <v>236</v>
       </c>
-      <c r="W6" s="200"/>
-      <c r="X6" s="201"/>
+      <c r="W6" s="185"/>
+      <c r="X6" s="186"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -4635,11 +4646,11 @@
       <c r="X11" s="195"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -4663,11 +4674,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
@@ -4720,18 +4731,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="183" t="s">
+      <c r="D41" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="183" t="s">
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="185"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="199"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
@@ -5041,15 +5052,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -5090,8 +5101,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="39" zoomScaleNormal="39" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5103,24 +5114,26 @@
     <col min="5" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.25" customWidth="1"/>
-    <col min="9" max="10" width="58.08203125" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="101.58203125" customWidth="1"/>
+    <col min="9" max="9" width="83.58203125" customWidth="1"/>
+    <col min="10" max="10" width="71.25" customWidth="1"/>
+    <col min="11" max="11" width="58.08203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="202" t="s">
+    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="52"/>
@@ -5130,8 +5143,9 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
       <c r="J2" s="45"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -5150,15 +5164,16 @@
       <c r="G3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="203" t="s">
+      <c r="H3" s="205" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="204"/>
-      <c r="J3" s="80" t="s">
+      <c r="I3" s="205"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="153" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
@@ -5169,18 +5184,19 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="154"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="136" t="s">
         <v>119</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -5190,24 +5206,31 @@
         <v>3</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="148" t="str">
+      <c r="H5" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
 "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I5" s="65"/>
+      <c r="I5" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),
+"Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
+        <v>Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)</v>
+      </c>
       <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="65"/>
+    </row>
+    <row r="6" spans="2:11" ht="31" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="140" t="s">
         <v>290</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="136" t="s">
         <v>121</v>
       </c>
       <c r="E6" s="24" t="s">
@@ -5217,27 +5240,31 @@
         <v>3</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="149" t="str">
+      <c r="H6" s="148" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="124" t="str">
+      <c r="I6" s="123" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="J6" s="65"/>
-    </row>
-    <row r="7" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J6" s="123" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
+        <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
+      </c>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>291</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -5250,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="148" t="str">
+      <c r="H7" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
@@ -5259,15 +5286,16 @@
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="65"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="140" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="136" t="s">
         <v>120</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -5277,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="148" t="str">
+      <c r="H8" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
@@ -5286,15 +5314,16 @@
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="65"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="136" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="32"/>
@@ -5304,7 +5333,7 @@
       <c r="G9" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="148" t="str">
+      <c r="H9" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#environmental-information"),
@@ -5313,12 +5342,13 @@
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="65"/>
-    </row>
-    <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K9" s="65"/>
+    </row>
+    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="140" t="s">
         <v>294</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -5331,7 +5361,7 @@
       <c r="G10" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="148" t="str">
+      <c r="H10" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
@@ -5340,15 +5370,16 @@
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="140" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>125</v>
       </c>
       <c r="E11" s="47"/>
@@ -5358,27 +5389,31 @@
       <c r="G11" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="148" t="str">
+      <c r="H11" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),"Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
+        <v>Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)</v>
+      </c>
+      <c r="I11" s="123" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"),
 "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="I11" s="124" t="str">
+      <c r="J11" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"),
 "Penetration Testing (a.k.a. Pentesting)")</f>
         <v>Penetration Testing (a.k.a. Pentesting)</v>
       </c>
-      <c r="J11" s="65"/>
-    </row>
-    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K11" s="65"/>
+    </row>
+    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>296</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -5391,7 +5426,7 @@
       <c r="G12" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="148" t="str">
+      <c r="H12" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptographic-policy"),
@@ -5400,15 +5435,16 @@
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="65"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="140" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="136" t="s">
         <v>127</v>
       </c>
       <c r="E13" s="32"/>
@@ -5418,7 +5454,7 @@
       <c r="G13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="148" t="str">
+      <c r="H13" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
@@ -5427,15 +5463,16 @@
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="65"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="141" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="136" t="s">
         <v>128</v>
       </c>
       <c r="E14" s="32"/>
@@ -5445,7 +5482,7 @@
       <c r="G14" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="148" t="str">
+      <c r="H14" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
@@ -5454,8 +5491,9 @@
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="65"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
@@ -5469,12 +5507,13 @@
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="142" t="s">
         <v>299</v>
       </c>
       <c r="D16" s="50" t="s">
@@ -5487,18 +5526,22 @@
         <v>3</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="90" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),"Testing Local Storage for Sensitive Data")</f>
-        <v>Testing Local Storage for Sensitive Data</v>
-      </c>
-      <c r="I16" s="65"/>
+      <c r="H16" s="210" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
+        <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
+      </c>
+      <c r="I16" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
+      </c>
       <c r="J16" s="65"/>
-    </row>
-    <row r="17" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K16" s="65"/>
+    </row>
+    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="142" t="s">
         <v>300</v>
       </c>
       <c r="D17" s="50" t="s">
@@ -5507,21 +5550,22 @@
       <c r="E17" s="24"/>
       <c r="F17" s="46"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),"Testing Local Storage for Sensitive Data")</f>
-        <v>Testing Local Storage for Sensitive Data</v>
+      <c r="H17" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
+        <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="65"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="142" t="s">
         <v>301</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="136" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -5531,21 +5575,22 @@
         <v>3</v>
       </c>
       <c r="G18" s="33"/>
-      <c r="H18" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data"),"Testing Logs for Sensitive Data")</f>
-        <v>Testing Logs for Sensitive Data</v>
+      <c r="H18" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data-mstg-storage-3"),"Testing Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
+        <v>Testing Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
       <c r="I18" s="65"/>
       <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="142" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="136" t="s">
         <v>132</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -5555,21 +5600,22 @@
         <v>3</v>
       </c>
       <c r="G19" s="33"/>
-      <c r="H19" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),"Determining Whether Sensitive Data is Sent to Third Parties")</f>
-        <v>Determining Whether Sensitive Data is Sent to Third Parties</v>
+      <c r="H19" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)")</f>
+        <v>Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
-    </row>
-    <row r="20" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K19" s="65"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="142" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="136" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -5579,21 +5625,22 @@
         <v>3</v>
       </c>
       <c r="G20" s="33"/>
-      <c r="H20" s="139" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields"),"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
-        <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
+      <c r="H20" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields-mstg-storage-5"),"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)")</f>
+        <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)</v>
       </c>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
-    </row>
-    <row r="21" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K20" s="65"/>
+    </row>
+    <row r="21" spans="2:11" ht="31" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="143" t="s">
+      <c r="C21" s="142" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="136" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -5603,21 +5650,22 @@
         <v>3</v>
       </c>
       <c r="G21" s="33"/>
-      <c r="H21" s="139" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms"),"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms")</f>
-        <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms</v>
+      <c r="H21" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
+        <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="65"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="142" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="136" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="24" t="s">
@@ -5627,21 +5675,22 @@
         <v>3</v>
       </c>
       <c r="G22" s="33"/>
-      <c r="H22" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface"),"Checking for Sensitive Data Disclosure Through the User Interface")</f>
-        <v>Checking for Sensitive Data Disclosure Through the User Interface</v>
+      <c r="H22" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)")</f>
+        <v>Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
       <c r="I22" s="65"/>
       <c r="J22" s="65"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="65"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="142" t="s">
         <v>306</v>
       </c>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="136" t="s">
         <v>136</v>
       </c>
       <c r="E23" s="50"/>
@@ -5651,21 +5700,22 @@
       <c r="G23" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),"Testing Backups for Sensitive Data")</f>
-        <v>Testing Backups for Sensitive Data</v>
+      <c r="H23" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
+        <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="65"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="142" t="s">
         <v>307</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="136" t="s">
         <v>280</v>
       </c>
       <c r="E24" s="50"/>
@@ -5675,18 +5725,19 @@
       <c r="G24" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots"),"Finding Sensitive Information in Auto-Generated Screenshots")</f>
-        <v>Finding Sensitive Information in Auto-Generated Screenshots</v>
+      <c r="H24" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9"),"Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)")</f>
+        <v>Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)</v>
       </c>
       <c r="I24" s="65"/>
       <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K24" s="65"/>
+    </row>
+    <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="142" t="s">
         <v>308</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -5699,18 +5750,19 @@
       <c r="G25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data"),"Checking Memory for Sensitive Data")</f>
-        <v>Checking Memory for Sensitive Data</v>
+      <c r="H25" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data-mstg-storage-10"),"Checking Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
+        <v>Checking Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
-    </row>
-    <row r="26" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K25" s="65"/>
+    </row>
+    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="142" t="s">
         <v>309</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -5723,18 +5775,22 @@
       <c r="G26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy"),"Testing the Device-Access-Security Policy")</f>
-        <v>Testing the Device-Access-Security Policy</v>
-      </c>
-      <c r="I26" s="65"/>
+      <c r="H26" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy-mstg-storage-11"),"Testing the Device-Access-Security Policy (MSTG-STORAGE-11)")</f>
+        <v>Testing the Device-Access-Security Policy (MSTG-STORAGE-11)</v>
+      </c>
+      <c r="I26" s="123" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
+        <v>Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
+      </c>
       <c r="J26" s="65"/>
-    </row>
-    <row r="27" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K26" s="65"/>
+    </row>
+    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="143" t="s">
+      <c r="C27" s="142" t="s">
         <v>310</v>
       </c>
       <c r="D27" s="50" t="s">
@@ -5747,14 +5803,15 @@
       <c r="G27" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="122" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education"),"Testing User Education")</f>
-        <v>Testing User Education</v>
+      <c r="H27" s="121" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
+        <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
       <c r="I27" s="65"/>
       <c r="J27" s="65"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="65"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
@@ -5768,15 +5825,16 @@
       <c r="H28" s="35"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="136" t="s">
         <v>281</v>
       </c>
       <c r="E29" s="24" t="s">
@@ -5786,21 +5844,25 @@
         <v>3</v>
       </c>
       <c r="G29" s="33"/>
-      <c r="H29" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management"),"Testing Key Management")</f>
-        <v>Testing Key Management</v>
-      </c>
-      <c r="I29" s="65"/>
+      <c r="H29" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
+      </c>
+      <c r="I29" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
+      </c>
       <c r="J29" s="65"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="65"/>
+    </row>
+    <row r="30" spans="2:11" ht="31" x14ac:dyDescent="0.35">
       <c r="B30" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="136" t="s">
         <v>140</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -5810,21 +5872,25 @@
         <v>3</v>
       </c>
       <c r="G30" s="33"/>
-      <c r="H30" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#cryptography-for-mobile-apps"),"Cryptography for Mobile Apps")</f>
-        <v>Cryptography for Mobile Apps</v>
-      </c>
-      <c r="I30" s="65"/>
+      <c r="H30" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
+      </c>
+      <c r="I30" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
+        <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
+      </c>
       <c r="J30" s="65"/>
-    </row>
-    <row r="31" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K30" s="65"/>
+    </row>
+    <row r="31" spans="2:11" ht="31" x14ac:dyDescent="0.35">
       <c r="B31" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="143" t="s">
+      <c r="C31" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="138" t="s">
+      <c r="D31" s="137" t="s">
         <v>141</v>
       </c>
       <c r="E31" s="24" t="s">
@@ -5834,18 +5900,22 @@
         <v>3</v>
       </c>
       <c r="G31" s="33"/>
-      <c r="H31" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),"Verifying the Configuration of Cryptographic Standard Algorithms")</f>
-        <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
-      </c>
-      <c r="I31" s="65"/>
+      <c r="H31" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
+        <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
+      </c>
+      <c r="I31" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
+      </c>
       <c r="J31" s="65"/>
-    </row>
-    <row r="32" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K31" s="65"/>
+    </row>
+    <row r="32" spans="2:11" ht="31" x14ac:dyDescent="0.35">
       <c r="B32" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="142" t="s">
         <v>314</v>
       </c>
       <c r="D32" s="50" t="s">
@@ -5858,21 +5928,25 @@
         <v>3</v>
       </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
-        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
-      </c>
-      <c r="I32" s="65"/>
+      <c r="H32" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
+      </c>
+      <c r="I32" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
+        <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
+      </c>
       <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="143" t="s">
+      <c r="C33" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="136" t="s">
         <v>143</v>
       </c>
       <c r="E33" s="24" t="s">
@@ -5882,21 +5956,22 @@
         <v>3</v>
       </c>
       <c r="G33" s="33"/>
-      <c r="H33" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management"),"Testing Key Management")</f>
-        <v>Testing Key Management</v>
+      <c r="H33" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="137" t="s">
+      <c r="D34" s="136" t="s">
         <v>282</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -5906,12 +5981,13 @@
         <v>3</v>
       </c>
       <c r="G34" s="33"/>
-      <c r="H34" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation")," Testing Random Number Generation")</f>
-        <v xml:space="preserve"> Testing Random Number Generation</v>
+      <c r="H34" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6"),"Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
+        <v>Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
       <c r="I34" s="65"/>
       <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
@@ -5927,15 +6003,16 @@
       <c r="H35" s="35"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="142" t="s">
         <v>317</v>
       </c>
-      <c r="D36" s="138" t="s">
+      <c r="D36" s="137" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -5945,21 +6022,28 @@
         <v>3</v>
       </c>
       <c r="G36" s="33"/>
-      <c r="H36" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),"Testing Authentication")</f>
-        <v>Testing Authentication</v>
-      </c>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
+      <c r="H36" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
+        <v>Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
+      </c>
+      <c r="I36" s="123" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
+        <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
+      </c>
+      <c r="J36" s="123" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
+      </c>
+      <c r="K36" s="65"/>
     </row>
     <row r="37" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="143" t="s">
+      <c r="C37" s="142" t="s">
         <v>318</v>
       </c>
-      <c r="D37" s="138" t="s">
+      <c r="D37" s="137" t="s">
         <v>145</v>
       </c>
       <c r="E37" s="24" t="s">
@@ -5969,21 +6053,22 @@
         <v>3</v>
       </c>
       <c r="G37" s="33"/>
-      <c r="H37" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),"Testing Stateful Session Management")</f>
-        <v>Testing Stateful Session Management</v>
+      <c r="H37" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
+        <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
       <c r="I37" s="65"/>
       <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
     </row>
     <row r="38" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="143" t="s">
+      <c r="C38" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="D38" s="138" t="s">
+      <c r="D38" s="137" t="s">
         <v>146</v>
       </c>
       <c r="E38" s="24" t="s">
@@ -5993,43 +6078,46 @@
         <v>3</v>
       </c>
       <c r="G38" s="33"/>
-      <c r="H38" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),"Testing Stateless (Token-Based) Authentication")</f>
-        <v>Testing Stateless (Token-Based) Authentication</v>
-      </c>
-      <c r="I38" s="65"/>
+      <c r="H38" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
+        <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
+      </c>
+      <c r="I38" s="123" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
+      </c>
       <c r="J38" s="65"/>
-      <c r="K38" s="51"/>
+      <c r="K38" s="65"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="143" t="s">
+      <c r="C39" s="142" t="s">
         <v>320</v>
       </c>
-      <c r="D39" s="137" t="s">
+      <c r="D39" s="136" t="s">
         <v>147</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="46"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),"User Logout and Session Timeouts")</f>
-        <v>User Logout and Session Timeouts</v>
+      <c r="H39" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
+        <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
       <c r="I39" s="65"/>
       <c r="J39" s="65"/>
-      <c r="K39" s="51"/>
+      <c r="K39" s="65"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="143" t="s">
+      <c r="C40" s="142" t="s">
         <v>321</v>
       </c>
-      <c r="D40" s="137" t="s">
+      <c r="D40" s="136" t="s">
         <v>148</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -6039,21 +6127,22 @@
         <v>3</v>
       </c>
       <c r="G40" s="33"/>
-      <c r="H40" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),"Best Practices for Passwords")</f>
-        <v>Best Practices for Passwords</v>
+      <c r="H40" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
+        <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
     </row>
     <row r="41" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="143" t="s">
+      <c r="C41" s="142" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="137" t="s">
+      <c r="D41" s="136" t="s">
         <v>149</v>
       </c>
       <c r="E41" s="24" t="s">
@@ -6063,21 +6152,25 @@
         <v>3</v>
       </c>
       <c r="G41" s="33"/>
-      <c r="H41" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),"Running a Password Dictionary Attack")</f>
-        <v>Running a Password Dictionary Attack</v>
-      </c>
-      <c r="I41" s="65"/>
+      <c r="H41" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
+        <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
+      </c>
+      <c r="I41" s="123" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
+        <v>Dynamic Testing (MSTG-AUTH-6)</v>
+      </c>
       <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
     </row>
     <row r="42" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="143" t="s">
+      <c r="C42" s="142" t="s">
         <v>323</v>
       </c>
-      <c r="D42" s="137" t="s">
+      <c r="D42" s="136" t="s">
         <v>150</v>
       </c>
       <c r="E42" s="24" t="s">
@@ -6087,21 +6180,22 @@
         <v>3</v>
       </c>
       <c r="G42" s="33"/>
-      <c r="H42" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),"Session Timeout")</f>
-        <v>Session Timeout</v>
+      <c r="H42" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
+        <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
       <c r="I42" s="51"/>
       <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
     </row>
     <row r="43" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B43" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="143" t="s">
+      <c r="C43" s="142" t="s">
         <v>324</v>
       </c>
-      <c r="D43" s="137" t="s">
+      <c r="D43" s="136" t="s">
         <v>151</v>
       </c>
       <c r="E43" s="50"/>
@@ -6111,18 +6205,19 @@
       <c r="G43" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication"),"Testing Biometric Authentication")</f>
-        <v>Testing Biometric Authentication</v>
+      <c r="H43" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8"),"Testing Biometric Authentication (MSTG-AUTH-8)")</f>
+        <v>Testing Biometric Authentication (MSTG-AUTH-8)</v>
       </c>
       <c r="I43" s="65"/>
       <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
     </row>
     <row r="44" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="142" t="s">
         <v>325</v>
       </c>
       <c r="D44" s="50" t="s">
@@ -6135,21 +6230,22 @@
       <c r="G44" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),"Verifying that 2FA is Enforced")</f>
-        <v>Verifying that 2FA is Enforced</v>
+      <c r="H44" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
+        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
       <c r="I44" s="65"/>
       <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="143" t="s">
+      <c r="C45" s="142" t="s">
         <v>326</v>
       </c>
-      <c r="D45" s="137" t="s">
+      <c r="D45" s="136" t="s">
         <v>153</v>
       </c>
       <c r="E45" s="50"/>
@@ -6159,21 +6255,22 @@
       <c r="G45" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),"2-Factor Authentication and Step-up Authentication")</f>
-        <v>2-Factor Authentication and Step-up Authentication</v>
+      <c r="H45" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
+        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
       <c r="I45" s="65"/>
       <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
     </row>
     <row r="46" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="143" t="s">
+      <c r="C46" s="142" t="s">
         <v>327</v>
       </c>
-      <c r="D46" s="137" t="s">
+      <c r="D46" s="136" t="s">
         <v>154</v>
       </c>
       <c r="E46" s="50"/>
@@ -6183,12 +6280,13 @@
       <c r="G46" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="92" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),"Login Activity and Device Blocking")</f>
-        <v>Login Activity and Device Blocking</v>
+      <c r="H46" s="91" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),"Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
+        <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
       <c r="I46" s="65"/>
       <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="34" t="s">
@@ -6204,15 +6302,16 @@
       <c r="H47" s="35"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
     </row>
     <row r="48" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B48" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="142" t="s">
         <v>328</v>
       </c>
-      <c r="D48" s="137" t="s">
+      <c r="D48" s="136" t="s">
         <v>155</v>
       </c>
       <c r="E48" s="24" t="s">
@@ -6222,21 +6321,22 @@
         <v>3</v>
       </c>
       <c r="G48" s="33"/>
-      <c r="H48" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),"Verifying Data Encryption on the Network")</f>
-        <v>Verifying Data Encryption on the Network</v>
+      <c r="H48" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
+        <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
       <c r="I48" s="65"/>
       <c r="J48" s="65"/>
-    </row>
-    <row r="49" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K48" s="65"/>
+    </row>
+    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="143" t="s">
+      <c r="C49" s="142" t="s">
         <v>329</v>
       </c>
-      <c r="D49" s="137" t="s">
+      <c r="D49" s="136" t="s">
         <v>156</v>
       </c>
       <c r="E49" s="24" t="s">
@@ -6246,21 +6346,22 @@
         <v>3</v>
       </c>
       <c r="G49" s="33"/>
-      <c r="H49" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),"Recommended TLS Settings")</f>
-        <v>Recommended TLS Settings</v>
+      <c r="H49" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
+        <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
       <c r="I49" s="65"/>
       <c r="J49" s="65"/>
-    </row>
-    <row r="50" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K49" s="65"/>
+    </row>
+    <row r="50" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="143" t="s">
+      <c r="C50" s="142" t="s">
         <v>330</v>
       </c>
-      <c r="D50" s="137" t="s">
+      <c r="D50" s="136" t="s">
         <v>157</v>
       </c>
       <c r="E50" s="24" t="s">
@@ -6270,21 +6371,22 @@
         <v>3</v>
       </c>
       <c r="G50" s="33"/>
-      <c r="H50" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification"),"Testing Endpoint Identify Verification")</f>
-        <v>Testing Endpoint Identify Verification</v>
-      </c>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-    </row>
-    <row r="51" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H50" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification-mstg-network-3"),"Testing Endpoint Identify Verification (MSTG-NETWORK-3)")</f>
+        <v>Testing Endpoint Identify Verification (MSTG-NETWORK-3)</v>
+      </c>
+      <c r="I50" s="123"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+    </row>
+    <row r="51" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B51" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="143" t="s">
+      <c r="C51" s="142" t="s">
         <v>331</v>
       </c>
-      <c r="D51" s="137" t="s">
+      <c r="D51" s="136" t="s">
         <v>158</v>
       </c>
       <c r="E51" s="50"/>
@@ -6294,21 +6396,25 @@
       <c r="G51" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="92" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),"Testing Custom Certificate Stores and Certificate Pinning")</f>
-        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
-      </c>
-      <c r="I51" s="65"/>
+      <c r="H51" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)</v>
+      </c>
+      <c r="I51" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration settings (MSTG-NETWORK-4)")</f>
+        <v>Testing the Network Security Configuration settings (MSTG-NETWORK-4)</v>
+      </c>
       <c r="J51" s="65"/>
-    </row>
-    <row r="52" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K51" s="65"/>
+    </row>
+    <row r="52" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B52" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="143" t="s">
+      <c r="C52" s="142" t="s">
         <v>332</v>
       </c>
-      <c r="D52" s="137" t="s">
+      <c r="D52" s="136" t="s">
         <v>159</v>
       </c>
       <c r="E52" s="50"/>
@@ -6318,21 +6424,22 @@
       <c r="G52" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),"Making Sure that Critical Operations Use Secure Communication Channels")</f>
-        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
+      <c r="H52" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
       <c r="I52" s="65"/>
       <c r="J52" s="65"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="65"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="C53" s="143" t="s">
+      <c r="C53" s="142" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="137" t="s">
+      <c r="D53" s="136" t="s">
         <v>160</v>
       </c>
       <c r="E53" s="50"/>
@@ -6342,14 +6449,15 @@
       <c r="G53" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H53" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider"),"Testing the Security Provider")</f>
-        <v>Testing the Security Provider</v>
+      <c r="H53" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6"),"Testing the Security Provider (MSTG-NETWORK-6)")</f>
+        <v>Testing the Security Provider (MSTG-NETWORK-6)</v>
       </c>
       <c r="I53" s="65"/>
       <c r="J53" s="65"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="65"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
@@ -6363,15 +6471,16 @@
       <c r="H54" s="35"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="143" t="s">
+      <c r="C55" s="142" t="s">
         <v>334</v>
       </c>
-      <c r="D55" s="137" t="s">
+      <c r="D55" s="136" t="s">
         <v>161</v>
       </c>
       <c r="E55" s="24" t="s">
@@ -6381,21 +6490,22 @@
         <v>3</v>
       </c>
       <c r="G55" s="33"/>
-      <c r="H55" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions"),"Testing App Permissions")</f>
-        <v>Testing App Permissions</v>
+      <c r="H55" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
+        <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
       <c r="I55" s="65"/>
       <c r="J55" s="65"/>
-    </row>
-    <row r="56" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K55" s="65"/>
+    </row>
+    <row r="56" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B56" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="143" t="s">
+      <c r="C56" s="142" t="s">
         <v>335</v>
       </c>
-      <c r="D56" s="137" t="s">
+      <c r="D56" s="136" t="s">
         <v>162</v>
       </c>
       <c r="E56" s="24" t="s">
@@ -6405,21 +6515,25 @@
         <v>3</v>
       </c>
       <c r="G56" s="33"/>
-      <c r="H56" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws"),"Injection Flaws")</f>
-        <v>Injection Flaws</v>
-      </c>
-      <c r="I56" s="65"/>
+      <c r="H56" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-injection-flaws-mstg-platform-2"),"Testing for Injection Flaws (MSTG-PLATFORM-2)")</f>
+        <v>Testing for Injection Flaws (MSTG-PLATFORM-2)</v>
+      </c>
+      <c r="I56" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-fragment-injection-mstg-platform-2"),"Testing for Fragment Injection (MSTG-PLATFORM-2)")</f>
+        <v>Testing for Fragment Injection (MSTG-PLATFORM-2)</v>
+      </c>
       <c r="J56" s="65"/>
-    </row>
-    <row r="57" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K56" s="65"/>
+    </row>
+    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B57" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="143" t="s">
+      <c r="C57" s="142" t="s">
         <v>336</v>
       </c>
-      <c r="D57" s="137" t="s">
+      <c r="D57" s="136" t="s">
         <v>163</v>
       </c>
       <c r="E57" s="24" t="s">
@@ -6429,21 +6543,22 @@
         <v>3</v>
       </c>
       <c r="G57" s="33"/>
-      <c r="H57" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),"Testing Custom URL Schemes")</f>
-        <v>Testing Custom URL Schemes</v>
+      <c r="H57" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
+        <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
       <c r="I57" s="65"/>
       <c r="J57" s="65"/>
-    </row>
-    <row r="58" spans="2:10" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K57" s="65"/>
+    </row>
+    <row r="58" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="143" t="s">
+      <c r="C58" s="142" t="s">
         <v>337</v>
       </c>
-      <c r="D58" s="137" t="s">
+      <c r="D58" s="136" t="s">
         <v>164</v>
       </c>
       <c r="E58" s="24" t="s">
@@ -6453,21 +6568,22 @@
         <v>3</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),"Testing for Sensitive Functionality Exposure Through IPC")</f>
-        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
+      <c r="H58" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),"Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="65"/>
-    </row>
-    <row r="59" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K58" s="65"/>
+    </row>
+    <row r="59" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="143" t="s">
+      <c r="C59" s="142" t="s">
         <v>338</v>
       </c>
-      <c r="D59" s="137" t="s">
+      <c r="D59" s="136" t="s">
         <v>165</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -6477,21 +6593,22 @@
         <v>3</v>
       </c>
       <c r="G59" s="33"/>
-      <c r="H59" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews"),"Testing JavaScript Execution in WebViews")</f>
-        <v>Testing JavaScript Execution in WebViews</v>
+      <c r="H59" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews-mstg-platform-5"),"Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)")</f>
+        <v>Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)</v>
       </c>
       <c r="I59" s="65"/>
       <c r="J59" s="65"/>
-    </row>
-    <row r="60" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K59" s="65"/>
+    </row>
+    <row r="60" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B60" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="143" t="s">
+      <c r="C60" s="142" t="s">
         <v>339</v>
       </c>
-      <c r="D60" s="137" t="s">
+      <c r="D60" s="136" t="s">
         <v>166</v>
       </c>
       <c r="E60" s="24" t="s">
@@ -6501,21 +6618,22 @@
         <v>3</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),"Testing WebView Protocol Handlers")</f>
-        <v>Testing WebView Protocol Handlers</v>
+      <c r="H60" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
+        <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
       <c r="I60" s="65"/>
       <c r="J60" s="65"/>
-    </row>
-    <row r="61" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K60" s="65"/>
+    </row>
+    <row r="61" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B61" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="C61" s="143" t="s">
+      <c r="C61" s="142" t="s">
         <v>340</v>
       </c>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="136" t="s">
         <v>167</v>
       </c>
       <c r="E61" s="24" t="s">
@@ -6525,21 +6643,22 @@
         <v>3</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews"),"Determining Whether Java Objects Are Exposed Through WebViews")</f>
-        <v>Determining Whether Java Objects Are Exposed Through WebViews</v>
+      <c r="H61" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
+        <v>Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
       <c r="I61" s="65"/>
       <c r="J61" s="65"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K61" s="65"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="143" t="s">
+      <c r="C62" s="142" t="s">
         <v>341</v>
       </c>
-      <c r="D62" s="137" t="s">
+      <c r="D62" s="136" t="s">
         <v>168</v>
       </c>
       <c r="E62" s="24" t="s">
@@ -6549,14 +6668,15 @@
         <v>3</v>
       </c>
       <c r="G62" s="33"/>
-      <c r="H62" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence"),"Testing Object Persistence")</f>
-        <v>Testing Object Persistence</v>
+      <c r="H62" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
+        <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="65"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K62" s="65"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
@@ -6570,15 +6690,16 @@
       <c r="H63" s="35"/>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-    </row>
-    <row r="64" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K63" s="36"/>
+    </row>
+    <row r="64" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="143" t="s">
+      <c r="C64" s="142" t="s">
         <v>342</v>
       </c>
-      <c r="D64" s="137" t="s">
+      <c r="D64" s="136" t="s">
         <v>170</v>
       </c>
       <c r="E64" s="24" t="s">
@@ -6588,21 +6709,22 @@
         <v>3</v>
       </c>
       <c r="G64" s="33"/>
-      <c r="H64" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),"Making Sure That the App is Properly Signed")</f>
-        <v>Making Sure That the App is Properly Signed</v>
+      <c r="H64" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure That the App is Properly Signed (MSTG-CODE-1)")</f>
+        <v>Making Sure That the App is Properly Signed (MSTG-CODE-1)</v>
       </c>
       <c r="I64" s="65"/>
       <c r="J64" s="65"/>
-    </row>
-    <row r="65" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K64" s="65"/>
+    </row>
+    <row r="65" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="143" t="s">
+      <c r="C65" s="142" t="s">
         <v>343</v>
       </c>
-      <c r="D65" s="137" t="s">
+      <c r="D65" s="136" t="s">
         <v>171</v>
       </c>
       <c r="E65" s="24" t="s">
@@ -6612,21 +6734,22 @@
         <v>3</v>
       </c>
       <c r="G65" s="33"/>
-      <c r="H65" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),"Determining Whether the App is Debuggable")</f>
-        <v>Determining Whether the App is Debuggable</v>
+      <c r="H65" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-whether-the-app-is-debuggable-mstg-code-2"),"Testing Whether the App is Debuggable (MSTG-CODE-2)")</f>
+        <v>Testing Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="65"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K65" s="65"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="143" t="s">
+      <c r="C66" s="142" t="s">
         <v>344</v>
       </c>
-      <c r="D66" s="137" t="s">
+      <c r="D66" s="136" t="s">
         <v>172</v>
       </c>
       <c r="E66" s="24" t="s">
@@ -6636,21 +6759,22 @@
         <v>3</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),"Finding Debugging Symbols")</f>
-        <v>Finding Debugging Symbols</v>
+      <c r="H66" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-symbols-mstg-code-3"),"Testing for Debugging Symbols (MSTG-CODE-3)")</f>
+        <v>Testing for Debugging Symbols (MSTG-CODE-3)</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="65"/>
-    </row>
-    <row r="67" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K66" s="65"/>
+    </row>
+    <row r="67" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B67" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="143" t="s">
+      <c r="C67" s="142" t="s">
         <v>345</v>
       </c>
-      <c r="D67" s="137" t="s">
+      <c r="D67" s="136" t="s">
         <v>173</v>
       </c>
       <c r="E67" s="24" t="s">
@@ -6660,21 +6784,22 @@
         <v>3</v>
       </c>
       <c r="G67" s="33"/>
-      <c r="H67" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),"Finding Debugging Code and Verbose Error Logging")</f>
-        <v>Finding Debugging Code and Verbose Error Logging</v>
+      <c r="H67" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-code-and-verbose-error-logging-mstg-code-4"),"Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
+        <v>Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
       <c r="I67" s="65"/>
       <c r="J67" s="65"/>
-    </row>
-    <row r="68" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K67" s="65"/>
+    </row>
+    <row r="68" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B68" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="143" t="s">
+      <c r="C68" s="142" t="s">
         <v>346</v>
       </c>
-      <c r="D68" s="137" t="s">
+      <c r="D68" s="136" t="s">
         <v>174</v>
       </c>
       <c r="E68" s="24" t="s">
@@ -6684,21 +6809,22 @@
         <v>3</v>
       </c>
       <c r="G68" s="33"/>
-      <c r="H68" s="92" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),"Checking for Weaknesses in Third Party Libraries")</f>
-        <v>Checking for Weaknesses in Third Party Libraries</v>
+      <c r="H68" s="91" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
+        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
       <c r="I68" s="65"/>
       <c r="J68" s="65"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K68" s="65"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="143" t="s">
+      <c r="C69" s="142" t="s">
         <v>347</v>
       </c>
-      <c r="D69" s="137" t="s">
+      <c r="D69" s="136" t="s">
         <v>175</v>
       </c>
       <c r="E69" s="24" t="s">
@@ -6708,21 +6834,22 @@
         <v>3</v>
       </c>
       <c r="G69" s="33"/>
-      <c r="H69" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),"Testing Exception Handling")</f>
-        <v>Testing Exception Handling</v>
+      <c r="H69" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
       <c r="I69" s="65"/>
       <c r="J69" s="65"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K69" s="65"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="143" t="s">
+      <c r="C70" s="142" t="s">
         <v>348</v>
       </c>
-      <c r="D70" s="137" t="s">
+      <c r="D70" s="136" t="s">
         <v>176</v>
       </c>
       <c r="E70" s="24" t="s">
@@ -6732,24 +6859,22 @@
         <v>3</v>
       </c>
       <c r="G70" s="33"/>
-      <c r="H70" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Testing Exception Handling")</f>
-        <v>Testing Exception Handling</v>
+      <c r="H70" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="65"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K70" s="65"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="143" t="s">
+      <c r="C71" s="142" t="s">
         <v>349</v>
       </c>
-      <c r="D71" s="137" t="s">
+      <c r="D71" s="136" t="s">
         <v>177</v>
       </c>
       <c r="E71" s="24" t="s">
@@ -6759,21 +6884,22 @@
         <v>3</v>
       </c>
       <c r="G71" s="33"/>
-      <c r="H71" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs"),"Memory Corruption Bugs")</f>
-        <v>Memory Corruption Bugs</v>
+      <c r="H71" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
+        <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
       <c r="I71" s="65"/>
       <c r="J71" s="65"/>
-    </row>
-    <row r="72" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K71" s="65"/>
+    </row>
+    <row r="72" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B72" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="143" t="s">
+      <c r="C72" s="142" t="s">
         <v>350</v>
       </c>
-      <c r="D72" s="137" t="s">
+      <c r="D72" s="136" t="s">
         <v>178</v>
       </c>
       <c r="E72" s="24" t="s">
@@ -6783,14 +6909,15 @@
         <v>3</v>
       </c>
       <c r="G72" s="33"/>
-      <c r="H72" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),"Make Sure That Free Security Features Are Activated")</f>
-        <v>Make Sure That Free Security Features Are Activated</v>
+      <c r="H72" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
+        <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
       <c r="I72" s="65"/>
       <c r="J72" s="65"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K72" s="65"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="37"/>
       <c r="C73" s="39"/>
       <c r="D73" s="38"/>
@@ -6800,8 +6927,9 @@
       <c r="H73" s="39"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="42"/>
@@ -6811,8 +6939,9 @@
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K74" s="41"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="50"/>
@@ -6822,8 +6951,9 @@
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K75" s="41"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="42"/>
@@ -6833,8 +6963,9 @@
       <c r="H76" s="41"/>
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K76" s="41"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="82" t="s">
         <v>217</v>
       </c>
@@ -6846,8 +6977,9 @@
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K77" s="41"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="84" t="s">
         <v>220</v>
       </c>
@@ -6861,12 +6993,13 @@
       <c r="H78" s="41"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K78" s="41"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="144"/>
+      <c r="C79" s="143"/>
       <c r="D79" s="83" t="s">
         <v>218</v>
       </c>
@@ -6876,12 +7009,13 @@
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K79" s="41"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="C80" s="144"/>
+      <c r="C80" s="143"/>
       <c r="D80" s="44" t="s">
         <v>97</v>
       </c>
@@ -6891,12 +7025,13 @@
       <c r="H80" s="41"/>
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K80" s="41"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="145"/>
+      <c r="C81" s="144"/>
       <c r="D81" s="83" t="s">
         <v>219</v>
       </c>
@@ -6906,8 +7041,9 @@
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="41"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
       <c r="D82" s="42"/>
@@ -6917,8 +7053,9 @@
       <c r="H82" s="41"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K82" s="23"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
@@ -6928,8 +7065,9 @@
       <c r="H83" s="41"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K83" s="23"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
       <c r="D84" s="42"/>
@@ -6939,8 +7077,9 @@
       <c r="H84" s="41"/>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K84" s="23"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
       <c r="D85" s="53"/>
@@ -6950,26 +7089,24 @@
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
       <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:J1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G27 G5:G14 G29:G34 G36:G46 G48:G53 G55:G62 G64:G72" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$B$79:$B$81</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H51" r:id="rId1" location="testing-custom-certificate-stores-and-certificate-pinning" display="testing-custom-certificate-stores-and-certificate-pinning" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6978,8 +7115,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B12" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7018,7 +7155,7 @@
       <c r="B3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="146"/>
+      <c r="C3" s="145"/>
       <c r="D3" s="68" t="s">
         <v>99</v>
       </c>
@@ -7037,7 +7174,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="69"/>
-      <c r="C4" s="147"/>
+      <c r="C4" s="146"/>
       <c r="D4" s="70" t="s">
         <v>181</v>
       </c>
@@ -7050,10 +7187,10 @@
       <c r="B5" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>351</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="136" t="s">
         <v>182</v>
       </c>
       <c r="E5" s="73" t="s">
@@ -7062,9 +7199,9 @@
       <c r="F5" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection"),"Testing Root Detection")</f>
-        <v>Testing Root Detection</v>
+      <c r="G5" s="92" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection-mstg-resilience-1"),"Testing Root Detection (MSTG-RESILIENCE-1)")</f>
+        <v>Testing Root Detection (MSTG-RESILIENCE-1)</v>
       </c>
       <c r="H5" s="72"/>
     </row>
@@ -7072,10 +7209,10 @@
       <c r="B6" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="140" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="136" t="s">
         <v>183</v>
       </c>
       <c r="E6" s="73" t="s">
@@ -7084,9 +7221,9 @@
       <c r="F6" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="140" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging"),"Testing Anti-Debugging")</f>
-        <v>Testing Anti-Debugging</v>
+      <c r="G6" s="139" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2"),"Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)")</f>
+        <v>Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)</v>
       </c>
       <c r="H6" s="72"/>
     </row>
@@ -7094,10 +7231,10 @@
       <c r="B7" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="136" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="73" t="s">
@@ -7106,9 +7243,9 @@
       <c r="F7" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks"),"Testing File Integrity Checks")</f>
-        <v>Testing File Integrity Checks</v>
+      <c r="G7" s="92" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks-mstg-resilience-3"),"Testing File Integrity Checks (MSTG-RESILIENCE-3)")</f>
+        <v>Testing File Integrity Checks (MSTG-RESILIENCE-3)</v>
       </c>
       <c r="H7" s="72"/>
     </row>
@@ -7116,10 +7253,10 @@
       <c r="B8" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="140" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="136" t="s">
         <v>185</v>
       </c>
       <c r="E8" s="73" t="s">
@@ -7128,9 +7265,9 @@
       <c r="F8" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-the-detection-of-reverse-engineering-tools"),"Testing The Detection of Reverse Engineering Tools")</f>
-        <v>Testing The Detection of Reverse Engineering Tools</v>
+      <c r="G8" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4"),"Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)")</f>
+        <v>Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)</v>
       </c>
       <c r="H8" s="72"/>
     </row>
@@ -7138,10 +7275,10 @@
       <c r="B9" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="136" t="s">
         <v>186</v>
       </c>
       <c r="E9" s="73" t="s">
@@ -7150,9 +7287,9 @@
       <c r="F9" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection"),"Testing Emulator Detection")</f>
-        <v>Testing Emulator Detection</v>
+      <c r="G9" s="92" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5"),"Testing Emulator Detection (MSTG-RESILIENCE-5)")</f>
+        <v>Testing Emulator Detection (MSTG-RESILIENCE-5)</v>
       </c>
       <c r="H9" s="72"/>
     </row>
@@ -7160,10 +7297,10 @@
       <c r="B10" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="140" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="136" t="s">
         <v>187</v>
       </c>
       <c r="E10" s="73" t="s">
@@ -7172,9 +7309,9 @@
       <c r="F10" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks"),"Testing Run Time Integrity Checks")</f>
-        <v>Testing Run Time Integrity Checks</v>
+      <c r="G10" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks-mstg-resilience-6"),"Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)")</f>
+        <v>Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)</v>
       </c>
       <c r="H10" s="72"/>
     </row>
@@ -7182,10 +7319,10 @@
       <c r="B11" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="140" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>188</v>
       </c>
       <c r="E11" s="73" t="s">
@@ -7194,7 +7331,7 @@
       <c r="F11" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="118" t="s">
         <v>271</v>
       </c>
       <c r="H11" s="72"/>
@@ -7203,10 +7340,10 @@
       <c r="B12" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>358</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="136" t="s">
         <v>189</v>
       </c>
       <c r="E12" s="73" t="s">
@@ -7215,7 +7352,7 @@
       <c r="F12" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="118" t="s">
+      <c r="G12" s="117" t="s">
         <v>75</v>
       </c>
       <c r="H12" s="72"/>
@@ -7224,10 +7361,10 @@
       <c r="B13" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="140" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="136" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="73" t="s">
@@ -7236,15 +7373,15 @@
       <c r="F13" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),"Testing Obfuscation")</f>
-        <v>Testing Obfuscation</v>
+      <c r="G13" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
+        <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
       <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="69"/>
-      <c r="C14" s="147"/>
+      <c r="C14" s="146"/>
       <c r="D14" s="70" t="s">
         <v>101</v>
       </c>
@@ -7257,10 +7394,10 @@
       <c r="B15" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="141" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="136" t="s">
         <v>191</v>
       </c>
       <c r="E15" s="73" t="s">
@@ -7269,15 +7406,15 @@
       <c r="F15" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding"),"Testing Device Binding")</f>
-        <v>Testing Device Binding</v>
+      <c r="G15" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding-mstg-resilience-10"),"Testing Device Binding (MSTG-RESILIENCE-10)")</f>
+        <v>Testing Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
       <c r="H15" s="72"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="69"/>
-      <c r="C16" s="147"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="70" t="s">
         <v>100</v>
       </c>
@@ -7290,10 +7427,10 @@
       <c r="B17" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="140" t="s">
         <v>361</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="136" t="s">
         <v>192</v>
       </c>
       <c r="E17" s="73" t="s">
@@ -7302,9 +7439,9 @@
       <c r="F17" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="123" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),"Testing Obfuscation")</f>
-        <v>Testing Obfuscation</v>
+      <c r="G17" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
+        <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
       <c r="H17" s="72"/>
     </row>
@@ -7312,10 +7449,10 @@
       <c r="B18" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="140" t="s">
         <v>362</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="136" t="s">
         <v>193</v>
       </c>
       <c r="E18" s="73" t="s">
@@ -7324,14 +7461,14 @@
       <c r="F18" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="118" t="s">
+      <c r="G18" s="117" t="s">
         <v>271</v>
       </c>
       <c r="H18" s="72"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="67"/>
-      <c r="C19" s="146"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="68"/>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
@@ -7384,7 +7521,7 @@
       <c r="B24" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="144"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="83" t="s">
         <v>218</v>
       </c>
@@ -7397,7 +7534,7 @@
       <c r="B25" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="144"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="44" t="s">
         <v>97</v>
       </c>
@@ -7410,7 +7547,7 @@
       <c r="B26" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="145"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="83" t="s">
         <v>219</v>
       </c>
@@ -7459,10 +7596,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:K85"/>
+  <dimension ref="B1:L85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7474,25 +7611,26 @@
     <col min="5" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.58203125" customWidth="1"/>
-    <col min="9" max="9" width="64.08203125" customWidth="1"/>
-    <col min="10" max="10" width="47.9140625" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="91.58203125" customWidth="1"/>
+    <col min="9" max="10" width="75.4140625" customWidth="1"/>
+    <col min="11" max="11" width="47.9140625" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="202" t="s">
+    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="204" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="152"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="52"/>
@@ -7502,8 +7640,9 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
       <c r="J2" s="45"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -7522,15 +7661,16 @@
       <c r="G3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="203" t="s">
+      <c r="H3" s="205" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="204"/>
-      <c r="J3" s="80" t="s">
+      <c r="I3" s="205"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="80" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
@@ -7541,18 +7681,19 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H4" s="207"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="136" t="s">
         <v>119</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -7562,7 +7703,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="148" t="str">
+      <c r="H5" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
@@ -7571,15 +7712,16 @@
       </c>
       <c r="I5" s="65"/>
       <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="65"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="140" t="s">
         <v>290</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="136" t="s">
         <v>121</v>
       </c>
       <c r="E6" s="24" t="s">
@@ -7589,27 +7731,31 @@
         <v>3</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="148" t="str">
+      <c r="H6" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="124" t="str">
+      <c r="I6" s="123" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="J6" s="65"/>
-    </row>
-    <row r="7" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J6" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
+        <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
+      </c>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>291</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -7622,7 +7768,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="148" t="str">
+      <c r="H7" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
@@ -7631,15 +7777,16 @@
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="65"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="140" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="136" t="s">
         <v>120</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -7649,7 +7796,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="148" t="str">
+      <c r="H8" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
@@ -7658,15 +7805,16 @@
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="65"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="136" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="32"/>
@@ -7676,7 +7824,7 @@
       <c r="G9" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="148" t="str">
+      <c r="H9" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#environmental-information"),
@@ -7685,12 +7833,13 @@
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="65"/>
-    </row>
-    <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K9" s="65"/>
+    </row>
+    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="140" t="s">
         <v>294</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -7703,7 +7852,7 @@
       <c r="G10" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="148" t="str">
+      <c r="H10" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
@@ -7712,15 +7861,16 @@
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="140" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>125</v>
       </c>
       <c r="E11" s="47"/>
@@ -7730,27 +7880,28 @@
       <c r="G11" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="148" t="str">
+      <c r="H11" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"),
 "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="I11" s="124" t="str">
+      <c r="I11" s="123" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"),
 "Penetration Testing (a.k.a. Pentesting)")</f>
         <v>Penetration Testing (a.k.a. Pentesting)</v>
       </c>
-      <c r="J11" s="65"/>
-    </row>
-    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J11" s="123"/>
+      <c r="K11" s="65"/>
+    </row>
+    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>296</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -7763,7 +7914,7 @@
       <c r="G12" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="148" t="str">
+      <c r="H12" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptographic-policy"),
@@ -7772,15 +7923,16 @@
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="65"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="140" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="136" t="s">
         <v>127</v>
       </c>
       <c r="E13" s="32"/>
@@ -7790,7 +7942,7 @@
       <c r="G13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="148" t="str">
+      <c r="H13" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
@@ -7799,15 +7951,16 @@
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="65"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="141" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="136" t="s">
         <v>128</v>
       </c>
       <c r="E14" s="32"/>
@@ -7817,7 +7970,7 @@
       <c r="G14" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="148" t="str">
+      <c r="H14" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
@@ -7826,8 +7979,9 @@
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="65"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
@@ -7841,12 +7995,13 @@
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="142" t="s">
         <v>299</v>
       </c>
       <c r="D16" s="50" t="s">
@@ -7859,18 +8014,19 @@
         <v>3</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),"Testing Local Data Storage")</f>
-        <v>Testing Local Data Storage</v>
+      <c r="H16" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
+        <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
       <c r="I16" s="65"/>
       <c r="J16" s="65"/>
-    </row>
-    <row r="17" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K16" s="65"/>
+    </row>
+    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="142" t="s">
         <v>300</v>
       </c>
       <c r="D17" s="50" t="s">
@@ -7879,21 +8035,22 @@
       <c r="E17" s="24"/>
       <c r="F17" s="46"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),"Testing Local Data Storage")</f>
-        <v>Testing Local Data Storage</v>
+      <c r="H17" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
+        <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="65"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="142" t="s">
         <v>301</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="136" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -7903,21 +8060,22 @@
         <v>3</v>
       </c>
       <c r="G18" s="33"/>
-      <c r="H18" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),"Checking Logs for Sensitive Data")</f>
-        <v>Checking Logs for Sensitive Data</v>
+      <c r="H18" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data-mstg-storage-3"),"Checking Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
+        <v>Checking Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
       <c r="I18" s="65"/>
       <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="142" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="136" t="s">
         <v>132</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -7927,21 +8085,22 @@
         <v>3</v>
       </c>
       <c r="G19" s="33"/>
-      <c r="H19" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),"Determining Whether Sensitive Data Is Sent to Third Parties")</f>
-        <v>Determining Whether Sensitive Data Is Sent to Third Parties</v>
+      <c r="H19" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)")</f>
+        <v>Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="65"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="142" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="136" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -7951,21 +8110,22 @@
         <v>3</v>
       </c>
       <c r="G20" s="33"/>
-      <c r="H20" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),"Finding Sensitive Data in the Keyboard Cache")</f>
-        <v>Finding Sensitive Data in the Keyboard Cache</v>
+      <c r="H20" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache-mstg-storage-5"),"Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)")</f>
+        <v>Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)</v>
       </c>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="65"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="143" t="s">
+      <c r="C21" s="142" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="136" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -7975,21 +8135,22 @@
         <v>3</v>
       </c>
       <c r="G21" s="33"/>
-      <c r="H21" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
-        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
+      <c r="H21" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
+        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="65"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="142" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="136" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="24" t="s">
@@ -7999,21 +8160,22 @@
         <v>3</v>
       </c>
       <c r="G22" s="33"/>
-      <c r="H22" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),"Checking for Sensitive Data Disclosed Through the User Interface")</f>
-        <v>Checking for Sensitive Data Disclosed Through the User Interface</v>
+      <c r="H22" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)")</f>
+        <v>Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
       <c r="I22" s="65"/>
       <c r="J22" s="65"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="65"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="142" t="s">
         <v>306</v>
       </c>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="136" t="s">
         <v>136</v>
       </c>
       <c r="E23" s="50"/>
@@ -8023,21 +8185,22 @@
       <c r="G23" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),"Testing Backups for Sensitive Data")</f>
-        <v>Testing Backups for Sensitive Data</v>
+      <c r="H23" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
+        <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="65"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="142" t="s">
         <v>307</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="136" t="s">
         <v>280</v>
       </c>
       <c r="E24" s="50"/>
@@ -8047,18 +8210,19 @@
       <c r="G24" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),"Testing Auto-Generated Screenshots for Sensitive Information")</f>
-        <v>Testing Auto-Generated Screenshots for Sensitive Information</v>
+      <c r="H24" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
+        <v>Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)</v>
       </c>
       <c r="I24" s="65"/>
       <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K24" s="65"/>
+    </row>
+    <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="142" t="s">
         <v>308</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -8071,18 +8235,19 @@
       <c r="G25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),"Testing Memory for Sensitive Data")</f>
-        <v>Testing Memory for Sensitive Data</v>
+      <c r="H25" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
+        <v>Testing Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
-    </row>
-    <row r="26" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K25" s="65"/>
+    </row>
+    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="142" t="s">
         <v>309</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -8095,18 +8260,19 @@
       <c r="G26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),"Local Authentication on iOS")</f>
-        <v>Local Authentication on iOS</v>
+      <c r="H26" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
+        <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
       <c r="I26" s="65"/>
       <c r="J26" s="65"/>
-    </row>
-    <row r="27" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K26" s="65"/>
+    </row>
+    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="143" t="s">
+      <c r="C27" s="142" t="s">
         <v>310</v>
       </c>
       <c r="D27" s="50" t="s">
@@ -8119,14 +8285,15 @@
       <c r="G27" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="92" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education"),"Testing User Education")</f>
-        <v>Testing User Education</v>
+      <c r="H27" s="91" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
+        <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
       <c r="I27" s="65"/>
       <c r="J27" s="65"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="65"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
@@ -8140,15 +8307,16 @@
       <c r="H28" s="35"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="136" t="s">
         <v>281</v>
       </c>
       <c r="E29" s="24" t="s">
@@ -8158,21 +8326,22 @@
         <v>3</v>
       </c>
       <c r="G29" s="33"/>
-      <c r="H29" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management"),"Testing Key Management")</f>
-        <v>Testing Key Management</v>
+      <c r="H29" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
       <c r="I29" s="65"/>
       <c r="J29" s="65"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="65"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="136" t="s">
         <v>140</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -8182,21 +8351,22 @@
         <v>3</v>
       </c>
       <c r="G30" s="33"/>
-      <c r="H30" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),"Custom Implementations of Cryptography")</f>
-        <v>Custom Implementations of Cryptography</v>
+      <c r="H30" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
       <c r="I30" s="65"/>
       <c r="J30" s="65"/>
-    </row>
-    <row r="31" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K30" s="65"/>
+    </row>
+    <row r="31" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="143" t="s">
+      <c r="C31" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="138" t="s">
+      <c r="D31" s="137" t="s">
         <v>141</v>
       </c>
       <c r="E31" s="24" t="s">
@@ -8206,18 +8376,19 @@
         <v>3</v>
       </c>
       <c r="G31" s="33"/>
-      <c r="H31" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),"Verifying the Configuration of Cryptographic Standard Algorithms")</f>
-        <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
+      <c r="H31" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
       <c r="I31" s="65"/>
       <c r="J31" s="65"/>
-    </row>
-    <row r="32" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K31" s="65"/>
+    </row>
+    <row r="32" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="142" t="s">
         <v>314</v>
       </c>
       <c r="D32" s="50" t="s">
@@ -8230,21 +8401,22 @@
         <v>3</v>
       </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
-        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
+      <c r="H32" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
       <c r="I32" s="65"/>
       <c r="J32" s="65"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K32" s="65"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="143" t="s">
+      <c r="C33" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="136" t="s">
         <v>143</v>
       </c>
       <c r="E33" s="24" t="s">
@@ -8254,21 +8426,22 @@
         <v>3</v>
       </c>
       <c r="G33" s="33"/>
-      <c r="H33" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management"),"Testing Key Management")</f>
-        <v>Testing Key Management</v>
+      <c r="H33" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K33" s="65"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="137" t="s">
+      <c r="D34" s="136" t="s">
         <v>282</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -8278,14 +8451,15 @@
         <v>3</v>
       </c>
       <c r="G34" s="33"/>
-      <c r="H34" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation")," Testing Random Number Generation")</f>
-        <v xml:space="preserve"> Testing Random Number Generation</v>
+      <c r="H34" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6")," Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
+        <v xml:space="preserve"> Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
       <c r="I34" s="65"/>
       <c r="J34" s="65"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K34" s="65"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
@@ -8299,15 +8473,16 @@
       <c r="H35" s="35"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="142" t="s">
         <v>317</v>
       </c>
-      <c r="D36" s="138" t="s">
+      <c r="D36" s="137" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -8317,21 +8492,25 @@
         <v>3</v>
       </c>
       <c r="G36" s="33"/>
-      <c r="H36" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),"Testing Authentication")</f>
-        <v>Testing Authentication</v>
-      </c>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-    </row>
-    <row r="37" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="H36" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
+        <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
+      </c>
+      <c r="I36" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
+      </c>
+      <c r="J36" s="90"/>
+      <c r="K36" s="65"/>
+    </row>
+    <row r="37" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="143" t="s">
+      <c r="C37" s="142" t="s">
         <v>318</v>
       </c>
-      <c r="D37" s="138" t="s">
+      <c r="D37" s="137" t="s">
         <v>145</v>
       </c>
       <c r="E37" s="24" t="s">
@@ -8341,21 +8520,22 @@
         <v>3</v>
       </c>
       <c r="G37" s="33"/>
-      <c r="H37" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),"Testing Stateful Session Management")</f>
-        <v>Testing Stateful Session Management</v>
+      <c r="H37" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
+        <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
       <c r="I37" s="65"/>
       <c r="J37" s="65"/>
-    </row>
-    <row r="38" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="K37" s="65"/>
+    </row>
+    <row r="38" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="143" t="s">
+      <c r="C38" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="D38" s="138" t="s">
+      <c r="D38" s="137" t="s">
         <v>146</v>
       </c>
       <c r="E38" s="24" t="s">
@@ -8365,43 +8545,48 @@
         <v>3</v>
       </c>
       <c r="G38" s="33"/>
-      <c r="H38" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),"Testing Stateless (Token-Based) Authentication")</f>
-        <v>Testing Stateless (Token-Based) Authentication</v>
-      </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="51"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H38" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
+        <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
+      </c>
+      <c r="I38" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
+      </c>
+      <c r="J38" s="90"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="51"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="143" t="s">
+      <c r="C39" s="142" t="s">
         <v>320</v>
       </c>
-      <c r="D39" s="137" t="s">
+      <c r="D39" s="136" t="s">
         <v>147</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="46"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),"User Logout and Session Timeouts")</f>
-        <v>User Logout and Session Timeouts</v>
+      <c r="H39" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
+        <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
       <c r="I39" s="65"/>
       <c r="J39" s="65"/>
-      <c r="K39" s="51"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K39" s="65"/>
+      <c r="L39" s="51"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="143" t="s">
+      <c r="C40" s="142" t="s">
         <v>321</v>
       </c>
-      <c r="D40" s="137" t="s">
+      <c r="D40" s="136" t="s">
         <v>148</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -8411,21 +8596,22 @@
         <v>3</v>
       </c>
       <c r="G40" s="33"/>
-      <c r="H40" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md##best-practices-for-passwords"),"Best Practices for Passwords")</f>
-        <v>Best Practices for Passwords</v>
+      <c r="H40" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
+        <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
-    </row>
-    <row r="41" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="K40" s="65"/>
+    </row>
+    <row r="41" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="143" t="s">
+      <c r="C41" s="142" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="137" t="s">
+      <c r="D41" s="136" t="s">
         <v>149</v>
       </c>
       <c r="E41" s="24" t="s">
@@ -8435,21 +8621,25 @@
         <v>3</v>
       </c>
       <c r="G41" s="33"/>
-      <c r="H41" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),"Running a Password Dictionary Attack")</f>
-        <v>Running a Password Dictionary Attack</v>
-      </c>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-    </row>
-    <row r="42" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="H41" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
+        <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
+      </c>
+      <c r="I41" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
+        <v>Dynamic Testing (MSTG-AUTH-6)</v>
+      </c>
+      <c r="J41" s="90"/>
+      <c r="K41" s="65"/>
+    </row>
+    <row r="42" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="143" t="s">
+      <c r="C42" s="142" t="s">
         <v>323</v>
       </c>
-      <c r="D42" s="137" t="s">
+      <c r="D42" s="136" t="s">
         <v>150</v>
       </c>
       <c r="E42" s="24" t="s">
@@ -8459,21 +8649,22 @@
         <v>3</v>
       </c>
       <c r="G42" s="33"/>
-      <c r="H42" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),"Session Timeout")</f>
-        <v>Session Timeout</v>
+      <c r="H42" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
+        <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
       <c r="I42" s="51"/>
       <c r="J42" s="51"/>
-    </row>
-    <row r="43" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B43" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="143" t="s">
+      <c r="C43" s="142" t="s">
         <v>324</v>
       </c>
-      <c r="D43" s="137" t="s">
+      <c r="D43" s="136" t="s">
         <v>151</v>
       </c>
       <c r="E43" s="50"/>
@@ -8483,18 +8674,19 @@
       <c r="G43" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication"),"Testing Local Authentication")</f>
-        <v>Testing Local Authentication</v>
-      </c>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-    </row>
-    <row r="44" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="H43" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
+        <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
+      </c>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="65"/>
+    </row>
+    <row r="44" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="142" t="s">
         <v>325</v>
       </c>
       <c r="D44" s="50" t="s">
@@ -8507,21 +8699,22 @@
       <c r="G44" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),"Verifying that 2FA is Enforced")</f>
-        <v>Verifying that 2FA is Enforced</v>
+      <c r="H44" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
+        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
       <c r="I44" s="65"/>
       <c r="J44" s="65"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K44" s="65"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="143" t="s">
+      <c r="C45" s="142" t="s">
         <v>326</v>
       </c>
-      <c r="D45" s="137" t="s">
+      <c r="D45" s="136" t="s">
         <v>153</v>
       </c>
       <c r="E45" s="50"/>
@@ -8531,21 +8724,22 @@
       <c r="G45" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),"2-Factor Authentication and Step-up Authentication")</f>
-        <v>2-Factor Authentication and Step-up Authentication</v>
+      <c r="H45" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
+        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
       <c r="I45" s="65"/>
       <c r="J45" s="65"/>
-    </row>
-    <row r="46" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="K45" s="65"/>
+    </row>
+    <row r="46" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="143" t="s">
+      <c r="C46" s="142" t="s">
         <v>327</v>
       </c>
-      <c r="D46" s="137" t="s">
+      <c r="D46" s="136" t="s">
         <v>154</v>
       </c>
       <c r="E46" s="50"/>
@@ -8555,17 +8749,18 @@
       <c r="G46" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="92" t="str">
+      <c r="H46" s="91" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
-"Login Activity and Device Blocking")</f>
-        <v>Login Activity and Device Blocking</v>
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),
+"Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
+        <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
       <c r="I46" s="65"/>
       <c r="J46" s="65"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K46" s="65"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
@@ -8579,15 +8774,16 @@
       <c r="H47" s="35"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
-    </row>
-    <row r="48" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B48" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="142" t="s">
         <v>328</v>
       </c>
-      <c r="D48" s="137" t="s">
+      <c r="D48" s="136" t="s">
         <v>155</v>
       </c>
       <c r="E48" s="24" t="s">
@@ -8597,27 +8793,22 @@
         <v>3</v>
       </c>
       <c r="G48" s="33"/>
-      <c r="H48" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),"Verifying Data Encryption on the Network")</f>
-        <v>Verifying Data Encryption on the Network</v>
-      </c>
-      <c r="I48" s="124" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security"),"App Transport Security")</f>
-        <v>App Transport Security</v>
-      </c>
-      <c r="J48" s="124" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security"),"App Transport Security")</f>
-        <v>App Transport Security</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="H48" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
+        <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
+      </c>
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+    </row>
+    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="143" t="s">
+      <c r="C49" s="142" t="s">
         <v>329</v>
       </c>
-      <c r="D49" s="137" t="s">
+      <c r="D49" s="136" t="s">
         <v>156</v>
       </c>
       <c r="E49" s="24" t="s">
@@ -8627,27 +8818,25 @@
         <v>3</v>
       </c>
       <c r="G49" s="33"/>
-      <c r="H49" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),"Recommended TLS Settings")</f>
-        <v>Recommended TLS Settings</v>
-      </c>
-      <c r="I49" s="124" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security"),"App Transport Security")</f>
-        <v>App Transport Security</v>
-      </c>
-      <c r="J49" s="124" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security"),"App Transport Security")</f>
-        <v>App Transport Security</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="H49" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
+        <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
+      </c>
+      <c r="I49" s="123" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security-mstg-network-2"),"App Transport Security (MSTG-NETWORK-2)")</f>
+        <v>App Transport Security (MSTG-NETWORK-2)</v>
+      </c>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+    </row>
+    <row r="50" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="143" t="s">
+      <c r="C50" s="142" t="s">
         <v>330</v>
       </c>
-      <c r="D50" s="137" t="s">
+      <c r="D50" s="136" t="s">
         <v>157</v>
       </c>
       <c r="E50" s="24" t="s">
@@ -8657,21 +8846,22 @@
         <v>3</v>
       </c>
       <c r="G50" s="33"/>
-      <c r="H50" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),"Testing Custom Certificate Stores and Certificate Pinning")</f>
-        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
+      <c r="H50" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
       <c r="I50" s="65"/>
       <c r="J50" s="65"/>
-    </row>
-    <row r="51" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K50" s="65"/>
+    </row>
+    <row r="51" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B51" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="143" t="s">
+      <c r="C51" s="142" t="s">
         <v>331</v>
       </c>
-      <c r="D51" s="137" t="s">
+      <c r="D51" s="136" t="s">
         <v>158</v>
       </c>
       <c r="E51" s="50"/>
@@ -8681,21 +8871,22 @@
       <c r="G51" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),"Testing Custom Certificate Stores and Certificate Pinning")</f>
-        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
+      <c r="H51" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
       <c r="I51" s="65"/>
       <c r="J51" s="65"/>
-    </row>
-    <row r="52" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K51" s="65"/>
+    </row>
+    <row r="52" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B52" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="143" t="s">
+      <c r="C52" s="142" t="s">
         <v>332</v>
       </c>
-      <c r="D52" s="137" t="s">
+      <c r="D52" s="136" t="s">
         <v>159</v>
       </c>
       <c r="E52" s="50"/>
@@ -8705,21 +8896,22 @@
       <c r="G52" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),"Making Sure that Critical Operations Use Secure Communication Channels")</f>
-        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
+      <c r="H52" s="138" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
       <c r="I52" s="65"/>
       <c r="J52" s="65"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="65"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="C53" s="143" t="s">
+      <c r="C53" s="142" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="137" t="s">
+      <c r="D53" s="136" t="s">
         <v>160</v>
       </c>
       <c r="E53" s="50"/>
@@ -8729,17 +8921,18 @@
       <c r="G53" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H53" s="125" t="str">
+      <c r="H53" s="124" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
-"Checking for Weaknesses in Third Party Libraries")</f>
-        <v>Checking for Weaknesses in Third Party Libraries</v>
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),
+"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
+        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
       <c r="I53" s="65"/>
       <c r="J53" s="65"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="65"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
@@ -8753,15 +8946,16 @@
       <c r="H54" s="35"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="143" t="s">
+      <c r="C55" s="142" t="s">
         <v>334</v>
       </c>
-      <c r="D55" s="137" t="s">
+      <c r="D55" s="136" t="s">
         <v>161</v>
       </c>
       <c r="E55" s="24" t="s">
@@ -8771,21 +8965,22 @@
         <v>3</v>
       </c>
       <c r="G55" s="33"/>
-      <c r="H55" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions"),"Testing App Permissions")</f>
-        <v>Testing App Permissions</v>
+      <c r="H55" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
+        <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
       <c r="I55" s="65"/>
       <c r="J55" s="65"/>
-    </row>
-    <row r="56" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K55" s="65"/>
+    </row>
+    <row r="56" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B56" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="143" t="s">
+      <c r="C56" s="142" t="s">
         <v>335</v>
       </c>
-      <c r="D56" s="137" t="s">
+      <c r="D56" s="136" t="s">
         <v>162</v>
       </c>
       <c r="E56" s="24" t="s">
@@ -8795,21 +8990,22 @@
         <v>3</v>
       </c>
       <c r="G56" s="33"/>
-      <c r="H56" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws"),"Injection Flaws")</f>
-        <v>Injection Flaws</v>
+      <c r="H56" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="I56" s="65"/>
       <c r="J56" s="65"/>
-    </row>
-    <row r="57" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K56" s="65"/>
+    </row>
+    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B57" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="143" t="s">
+      <c r="C57" s="142" t="s">
         <v>336</v>
       </c>
-      <c r="D57" s="137" t="s">
+      <c r="D57" s="136" t="s">
         <v>163</v>
       </c>
       <c r="E57" s="24" t="s">
@@ -8819,21 +9015,22 @@
         <v>3</v>
       </c>
       <c r="G57" s="33"/>
-      <c r="H57" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),"Testing Custom URL Schemes")</f>
-        <v>Testing Custom URL Schemes</v>
+      <c r="H57" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
+        <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
       <c r="I57" s="65"/>
       <c r="J57" s="65"/>
-    </row>
-    <row r="58" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K57" s="65"/>
+    </row>
+    <row r="58" spans="2:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="143" t="s">
+      <c r="C58" s="142" t="s">
         <v>337</v>
       </c>
-      <c r="D58" s="137" t="s">
+      <c r="D58" s="136" t="s">
         <v>164</v>
       </c>
       <c r="E58" s="24" t="s">
@@ -8843,24 +9040,25 @@
         <v>3</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="126" t="str">
+      <c r="H58" s="125" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
-"Testing for Sensitive Functionality Exposure Through IPC")</f>
-        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
+"0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),
+"Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="65"/>
-    </row>
-    <row r="59" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K58" s="65"/>
+    </row>
+    <row r="59" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="143" t="s">
+      <c r="C59" s="142" t="s">
         <v>338</v>
       </c>
-      <c r="D59" s="137" t="s">
+      <c r="D59" s="136" t="s">
         <v>165</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -8870,21 +9068,22 @@
         <v>3</v>
       </c>
       <c r="G59" s="33"/>
-      <c r="H59" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),"Testing iOS WebViews")</f>
-        <v>Testing iOS WebViews</v>
+      <c r="H59" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews-mstg-platform-5"),"Testing iOS WebViews (MSTG-PLATFORM-5)")</f>
+        <v>Testing iOS WebViews (MSTG-PLATFORM-5)</v>
       </c>
       <c r="I59" s="65"/>
       <c r="J59" s="65"/>
-    </row>
-    <row r="60" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K59" s="65"/>
+    </row>
+    <row r="60" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B60" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="143" t="s">
+      <c r="C60" s="142" t="s">
         <v>340</v>
       </c>
-      <c r="D60" s="137" t="s">
+      <c r="D60" s="136" t="s">
         <v>166</v>
       </c>
       <c r="E60" s="24" t="s">
@@ -8894,21 +9093,22 @@
         <v>3</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),"Testing WebView Protocol Handlers")</f>
-        <v>Testing WebView Protocol Handlers</v>
+      <c r="H60" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
+        <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
       <c r="I60" s="65"/>
       <c r="J60" s="65"/>
-    </row>
-    <row r="61" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K60" s="65"/>
+    </row>
+    <row r="61" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B61" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="C61" s="143" t="s">
+      <c r="C61" s="142" t="s">
         <v>341</v>
       </c>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="136" t="s">
         <v>167</v>
       </c>
       <c r="E61" s="24" t="s">
@@ -8918,21 +9118,22 @@
         <v>3</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),"Determining Whether Native Methods Are Exposed Through WebViews")</f>
-        <v>Determining Whether Native Methods Are Exposed Through WebViews</v>
+      <c r="H61" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
+        <v>Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
       <c r="I61" s="65"/>
       <c r="J61" s="65"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K61" s="65"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="143" t="s">
+      <c r="C62" s="142" t="s">
         <v>363</v>
       </c>
-      <c r="D62" s="137" t="s">
+      <c r="D62" s="136" t="s">
         <v>168</v>
       </c>
       <c r="E62" s="24" t="s">
@@ -8942,14 +9143,15 @@
         <v>3</v>
       </c>
       <c r="G62" s="33"/>
-      <c r="H62" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),"Testing Object Persistence")</f>
-        <v>Testing Object Persistence</v>
+      <c r="H62" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
+        <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="65"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K62" s="65"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
@@ -8963,15 +9165,16 @@
       <c r="H63" s="35"/>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K63" s="36"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="143" t="s">
+      <c r="C64" s="142" t="s">
         <v>342</v>
       </c>
-      <c r="D64" s="137" t="s">
+      <c r="D64" s="136" t="s">
         <v>170</v>
       </c>
       <c r="E64" s="24" t="s">
@@ -8981,21 +9184,22 @@
         <v>3</v>
       </c>
       <c r="G64" s="33"/>
-      <c r="H64" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),"Making Sure that the App Is Properly Signed")</f>
-        <v>Making Sure that the App Is Properly Signed</v>
+      <c r="H64" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure that the App Is Properly Signed (MSTG-CODE-1)")</f>
+        <v>Making Sure that the App Is Properly Signed (MSTG-CODE-1)</v>
       </c>
       <c r="I64" s="65"/>
       <c r="J64" s="65"/>
-    </row>
-    <row r="65" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K64" s="65"/>
+    </row>
+    <row r="65" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B65" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="143" t="s">
+      <c r="C65" s="142" t="s">
         <v>343</v>
       </c>
-      <c r="D65" s="137" t="s">
+      <c r="D65" s="136" t="s">
         <v>171</v>
       </c>
       <c r="E65" s="24" t="s">
@@ -9005,21 +9209,22 @@
         <v>3</v>
       </c>
       <c r="G65" s="33"/>
-      <c r="H65" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),"Determining Whether the App is Debuggable")</f>
-        <v>Determining Whether the App is Debuggable</v>
+      <c r="H65" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable-mstg-code-2"),"Determining Whether the App is Debuggable (MSTG-CODE-2)")</f>
+        <v>Determining Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="65"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K65" s="65"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="143" t="s">
+      <c r="C66" s="142" t="s">
         <v>344</v>
       </c>
-      <c r="D66" s="137" t="s">
+      <c r="D66" s="136" t="s">
         <v>172</v>
       </c>
       <c r="E66" s="24" t="s">
@@ -9029,21 +9234,22 @@
         <v>3</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),"Finding Debugging Symbols")</f>
-        <v>Finding Debugging Symbols</v>
+      <c r="H66" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols-mstg-code-3"),"Finding Debugging Symbols (MSTG-CODE-3)")</f>
+        <v>Finding Debugging Symbols (MSTG-CODE-3)</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="65"/>
-    </row>
-    <row r="67" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K66" s="65"/>
+    </row>
+    <row r="67" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B67" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="143" t="s">
+      <c r="C67" s="142" t="s">
         <v>345</v>
       </c>
-      <c r="D67" s="137" t="s">
+      <c r="D67" s="136" t="s">
         <v>173</v>
       </c>
       <c r="E67" s="24" t="s">
@@ -9053,21 +9259,22 @@
         <v>3</v>
       </c>
       <c r="G67" s="33"/>
-      <c r="H67" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),"Finding Debugging Code and Verbose Error Logging")</f>
-        <v>Finding Debugging Code and Verbose Error Logging</v>
+      <c r="H67" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging-mstg-code-4"),"Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
+        <v>Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
       <c r="I67" s="65"/>
       <c r="J67" s="65"/>
-    </row>
-    <row r="68" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K67" s="65"/>
+    </row>
+    <row r="68" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B68" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="143" t="s">
+      <c r="C68" s="142" t="s">
         <v>346</v>
       </c>
-      <c r="D68" s="137" t="s">
+      <c r="D68" s="136" t="s">
         <v>174</v>
       </c>
       <c r="E68" s="24" t="s">
@@ -9077,21 +9284,22 @@
         <v>3</v>
       </c>
       <c r="G68" s="33"/>
-      <c r="H68" s="92" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),"Checking for Weaknesses in Third Party Libraries")</f>
-        <v>Checking for Weaknesses in Third Party Libraries</v>
+      <c r="H68" s="91" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
+        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
       <c r="I68" s="65"/>
       <c r="J68" s="65"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K68" s="65"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="143" t="s">
+      <c r="C69" s="142" t="s">
         <v>347</v>
       </c>
-      <c r="D69" s="137" t="s">
+      <c r="D69" s="136" t="s">
         <v>175</v>
       </c>
       <c r="E69" s="24" t="s">
@@ -9101,21 +9309,22 @@
         <v>3</v>
       </c>
       <c r="G69" s="33"/>
-      <c r="H69" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),"Testing Exception Handling")</f>
-        <v>Testing Exception Handling</v>
+      <c r="H69" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
       <c r="I69" s="65"/>
       <c r="J69" s="65"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K69" s="65"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="143" t="s">
+      <c r="C70" s="142" t="s">
         <v>348</v>
       </c>
-      <c r="D70" s="137" t="s">
+      <c r="D70" s="136" t="s">
         <v>176</v>
       </c>
       <c r="E70" s="24" t="s">
@@ -9125,21 +9334,22 @@
         <v>3</v>
       </c>
       <c r="G70" s="33"/>
-      <c r="H70" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),"Testing Exception Handling")</f>
-        <v>Testing Exception Handling</v>
+      <c r="H70" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="65"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K70" s="65"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="143" t="s">
+      <c r="C71" s="142" t="s">
         <v>349</v>
       </c>
-      <c r="D71" s="137" t="s">
+      <c r="D71" s="136" t="s">
         <v>177</v>
       </c>
       <c r="E71" s="24" t="s">
@@ -9149,21 +9359,22 @@
         <v>3</v>
       </c>
       <c r="G71" s="33"/>
-      <c r="H71" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs"),"Memory Corruption Bugs")</f>
-        <v>Memory Corruption Bugs</v>
+      <c r="H71" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
+        <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
       <c r="I71" s="65"/>
       <c r="J71" s="65"/>
-    </row>
-    <row r="72" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K71" s="65"/>
+    </row>
+    <row r="72" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B72" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="143" t="s">
+      <c r="C72" s="142" t="s">
         <v>350</v>
       </c>
-      <c r="D72" s="137" t="s">
+      <c r="D72" s="136" t="s">
         <v>178</v>
       </c>
       <c r="E72" s="24" t="s">
@@ -9173,14 +9384,15 @@
         <v>3</v>
       </c>
       <c r="G72" s="33"/>
-      <c r="H72" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),"Make Sure That Free Security Features Are Activated")</f>
-        <v>Make Sure That Free Security Features Are Activated</v>
+      <c r="H72" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
+        <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
       <c r="I72" s="65"/>
       <c r="J72" s="65"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K72" s="65"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="37"/>
       <c r="C73" s="39"/>
       <c r="D73" s="38"/>
@@ -9190,8 +9402,9 @@
       <c r="H73" s="39"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="42"/>
@@ -9201,8 +9414,9 @@
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K74" s="41"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="50"/>
@@ -9212,8 +9426,9 @@
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K75" s="41"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="42"/>
@@ -9223,8 +9438,9 @@
       <c r="H76" s="41"/>
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K76" s="41"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="82" t="s">
         <v>217</v>
       </c>
@@ -9236,8 +9452,9 @@
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K77" s="41"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="84" t="s">
         <v>220</v>
       </c>
@@ -9251,12 +9468,13 @@
       <c r="H78" s="41"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K78" s="41"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="144"/>
+      <c r="C79" s="143"/>
       <c r="D79" s="83" t="s">
         <v>218</v>
       </c>
@@ -9266,12 +9484,13 @@
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K79" s="41"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="C80" s="144"/>
+      <c r="C80" s="143"/>
       <c r="D80" s="44" t="s">
         <v>97</v>
       </c>
@@ -9281,12 +9500,13 @@
       <c r="H80" s="41"/>
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K80" s="41"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="145"/>
+      <c r="C81" s="144"/>
       <c r="D81" s="83" t="s">
         <v>219</v>
       </c>
@@ -9296,8 +9516,9 @@
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="41"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
       <c r="D82" s="42"/>
@@ -9307,8 +9528,9 @@
       <c r="H82" s="41"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K82" s="23"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
@@ -9318,8 +9540,9 @@
       <c r="H83" s="41"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K83" s="23"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
       <c r="D84" s="42"/>
@@ -9329,8 +9552,9 @@
       <c r="H84" s="41"/>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K84" s="23"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
       <c r="D85" s="53"/>
@@ -9340,18 +9564,19 @@
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
       <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G34 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62 G16:G27" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$B$79:$B$81</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:J1048576" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9364,8 +9589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9376,7 +9601,7 @@
     <col min="4" max="4" width="93.33203125" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="56.75" customWidth="1"/>
+    <col min="7" max="7" width="61.83203125" customWidth="1"/>
     <col min="8" max="8" width="30.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9402,7 +9627,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="67"/>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="145" t="s">
         <v>288</v>
       </c>
       <c r="D3" s="68" t="s">
@@ -9425,7 +9650,7 @@
       <c r="B4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="146"/>
       <c r="D4" s="70" t="s">
         <v>181</v>
       </c>
@@ -9438,10 +9663,10 @@
       <c r="B5" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>351</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="136" t="s">
         <v>182</v>
       </c>
       <c r="E5" s="73" t="s">
@@ -9450,9 +9675,9 @@
       <c r="F5" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),"Jailbreak Detection")</f>
-        <v>Jailbreak Detection</v>
+      <c r="G5" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1"),"Jailbreak Detection (MSTG-RESILIENCE-1)")</f>
+        <v>Jailbreak Detection (MSTG-RESILIENCE-1)</v>
       </c>
       <c r="H5" s="72"/>
     </row>
@@ -9460,10 +9685,10 @@
       <c r="B6" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="140" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="136" t="s">
         <v>183</v>
       </c>
       <c r="E6" s="73" t="s">
@@ -9472,9 +9697,9 @@
       <c r="F6" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="94" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),"Anti-Debugging Checks")</f>
-        <v>Anti-Debugging Checks</v>
+      <c r="G6" s="93" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks-mstg-resilience-2"),"Anti-Debugging Checks (MSTG-RESILIENCE-2)")</f>
+        <v>Anti-Debugging Checks (MSTG-RESILIENCE-2)</v>
       </c>
       <c r="H6" s="72"/>
     </row>
@@ -9482,10 +9707,10 @@
       <c r="B7" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="136" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="73" t="s">
@@ -9494,9 +9719,9 @@
       <c r="F7" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="94" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),"File Integrity Checks")</f>
-        <v>File Integrity Checks</v>
+      <c r="G7" s="93" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
+        <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
       <c r="H7" s="72"/>
     </row>
@@ -9504,10 +9729,10 @@
       <c r="B8" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="140" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="136" t="s">
         <v>185</v>
       </c>
       <c r="E8" s="73" t="s">
@@ -9516,7 +9741,7 @@
       <c r="F8" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="120" t="s">
         <v>75</v>
       </c>
       <c r="H8" s="72"/>
@@ -9525,10 +9750,10 @@
       <c r="B9" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="136" t="s">
         <v>186</v>
       </c>
       <c r="E9" s="73" t="s">
@@ -9537,7 +9762,7 @@
       <c r="F9" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="119" t="s">
         <v>75</v>
       </c>
       <c r="H9" s="72"/>
@@ -9546,10 +9771,10 @@
       <c r="B10" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="140" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="136" t="s">
         <v>187</v>
       </c>
       <c r="E10" s="73" t="s">
@@ -9558,7 +9783,7 @@
       <c r="F10" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="120" t="s">
         <v>75</v>
       </c>
       <c r="H10" s="72"/>
@@ -9567,10 +9792,10 @@
       <c r="B11" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="140" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>188</v>
       </c>
       <c r="E11" s="73" t="s">
@@ -9579,7 +9804,7 @@
       <c r="F11" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="118" t="s">
+      <c r="G11" s="117" t="s">
         <v>75</v>
       </c>
       <c r="H11" s="72"/>
@@ -9588,10 +9813,10 @@
       <c r="B12" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>358</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="136" t="s">
         <v>189</v>
       </c>
       <c r="E12" s="73" t="s">
@@ -9600,7 +9825,7 @@
       <c r="F12" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="118" t="s">
+      <c r="G12" s="117" t="s">
         <v>75</v>
       </c>
       <c r="H12" s="72"/>
@@ -9609,10 +9834,10 @@
       <c r="B13" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="140" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="136" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="73" t="s">
@@ -9621,14 +9846,14 @@
       <c r="F13" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="119" t="s">
         <v>75</v>
       </c>
       <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="69"/>
-      <c r="C14" s="147"/>
+      <c r="C14" s="146"/>
       <c r="D14" s="70" t="s">
         <v>101</v>
       </c>
@@ -9641,10 +9866,10 @@
       <c r="B15" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="141" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="136" t="s">
         <v>191</v>
       </c>
       <c r="E15" s="73" t="s">
@@ -9653,15 +9878,15 @@
       <c r="F15" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="91" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),"Device Binding")</f>
-        <v>Device Binding</v>
+      <c r="G15" s="90" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10"),"Device Binding (MSTG-RESILIENCE-10)")</f>
+        <v>Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
       <c r="H15" s="72"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="69"/>
-      <c r="C16" s="147"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="70" t="s">
         <v>100</v>
       </c>
@@ -9674,10 +9899,10 @@
       <c r="B17" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="140" t="s">
         <v>361</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="136" t="s">
         <v>192</v>
       </c>
       <c r="E17" s="73" t="s">
@@ -9686,8 +9911,9 @@
       <c r="F17" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="118" t="s">
-        <v>75</v>
+      <c r="G17" s="122" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
+        <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
       <c r="H17" s="72"/>
     </row>
@@ -9695,10 +9921,10 @@
       <c r="B18" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="140" t="s">
         <v>362</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="136" t="s">
         <v>193</v>
       </c>
       <c r="E18" s="73" t="s">
@@ -9707,14 +9933,14 @@
       <c r="F18" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="118" t="s">
+      <c r="G18" s="117" t="s">
         <v>75</v>
       </c>
       <c r="H18" s="72"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="67"/>
-      <c r="C19" s="146"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="68"/>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
@@ -9767,7 +9993,7 @@
       <c r="B24" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="144"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="83" t="s">
         <v>218</v>
       </c>
@@ -9780,7 +10006,7 @@
       <c r="B25" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="144"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="44" t="s">
         <v>97</v>
       </c>
@@ -9793,7 +10019,7 @@
       <c r="B26" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="145"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="83" t="s">
         <v>219</v>
       </c>
@@ -9857,11 +10083,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="105"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
@@ -9872,7 +10098,7 @@
       <c r="B2" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="105" t="s">
         <v>228</v>
       </c>
       <c r="D2" s="60" t="s">
@@ -9889,7 +10115,7 @@
       <c r="B3" s="61">
         <v>0.1</v>
       </c>
-      <c r="C3" s="107"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="59">
         <v>42765</v>
       </c>
@@ -9904,7 +10130,7 @@
       <c r="B4" s="61">
         <v>0.2</v>
       </c>
-      <c r="C4" s="107"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="59">
         <v>42766</v>
       </c>
@@ -9919,7 +10145,7 @@
       <c r="B5" s="61">
         <v>0.3</v>
       </c>
-      <c r="C5" s="107"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="59">
         <v>42778</v>
       </c>
@@ -9934,7 +10160,7 @@
       <c r="B6" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="107"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="59">
         <v>42780</v>
       </c>
@@ -9949,7 +10175,7 @@
       <c r="B7" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="59">
         <v>42781</v>
       </c>
@@ -9964,7 +10190,7 @@
       <c r="B8" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="59">
         <v>42829</v>
       </c>
@@ -9979,7 +10205,7 @@
       <c r="B9" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="108"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="59">
         <v>42919</v>
       </c>
@@ -9994,7 +10220,7 @@
       <c r="B10" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="59">
         <v>42963</v>
       </c>
@@ -10009,7 +10235,7 @@
       <c r="B11" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="109"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="59">
         <v>43113</v>
       </c>
@@ -10024,7 +10250,7 @@
       <c r="B12" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="109"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="59">
         <v>43289</v>
       </c>
@@ -10039,7 +10265,7 @@
       <c r="B13" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="59">
         <v>43464</v>
       </c>
@@ -10054,7 +10280,7 @@
       <c r="B14" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="103"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="59">
         <v>43469</v>
       </c>
@@ -10063,19 +10289,19 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="102" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="103">
         <v>43471</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="116" t="s">
         <v>248</v>
       </c>
     </row>
@@ -10086,7 +10312,7 @@
       <c r="B16" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="102" t="s">
         <v>229</v>
       </c>
       <c r="D16" s="88">
@@ -10097,138 +10323,138 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="111" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="113">
+      <c r="D17" s="112">
         <v>43476</v>
       </c>
-      <c r="E17" s="116" t="s">
+      <c r="E17" s="115" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="127" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="129">
+      <c r="D18" s="128">
         <v>43478</v>
       </c>
-      <c r="E18" s="130" t="s">
+      <c r="E18" s="129" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="115">
+      <c r="D19" s="114">
         <v>43641</v>
       </c>
-      <c r="E19" s="136" t="s">
+      <c r="E19" s="135" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="115">
+      <c r="D20" s="114">
         <v>43642</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="109" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="D21" s="115">
+      <c r="D21" s="114">
         <v>43649</v>
       </c>
-      <c r="E21" s="136" t="s">
+      <c r="E21" s="135" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="115">
+      <c r="D22" s="114">
         <v>43672</v>
       </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="135" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="114">
         <v>43677</v>
       </c>
-      <c r="E23" s="136" t="s">
+      <c r="E23" s="135" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="149" t="s">
         <v>272</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="151">
-        <v>43684</v>
-      </c>
-      <c r="E24" s="152" t="s">
+      <c r="D24" s="150">
+        <v>43685</v>
+      </c>
+      <c r="E24" s="151" t="s">
         <v>364</v>
       </c>
     </row>

--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE1A065-BC9F-4592-9B3B-9487D9A8A0F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B31EA-F0B7-4AB2-BA8A-68657F1E989E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de Bord" sheetId="6" r:id="rId1"/>
@@ -2670,33 +2670,78 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2715,47 +2760,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2766,33 +2806,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2805,16 +2818,6 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2832,9 +2835,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -4127,48 +4127,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="160" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="174"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="176"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="176"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="174"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="176"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="165"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="174"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="176"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="177"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="179"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="168"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="130" t="s">
@@ -4178,29 +4178,29 @@
       <c r="D10" s="132"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="174" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="183"/>
+      <c r="C11" s="174"/>
       <c r="D11" s="133" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="174" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="183"/>
+      <c r="C12" s="174"/>
       <c r="D12" s="134" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="172" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="182"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="96" t="s">
         <v>365</v>
       </c>
@@ -4237,55 +4237,55 @@
       <c r="D17" s="96"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="158" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="170"/>
+      <c r="C18" s="159"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="161"/>
+      <c r="C19" s="157"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="156" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="161"/>
+      <c r="C20" s="157"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="161"/>
+      <c r="C21" s="157"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="156" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="157"/>
       <c r="D22" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="156" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="161"/>
+      <c r="C23" s="157"/>
       <c r="D23" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="162"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="163"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
@@ -4302,37 +4302,37 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="161"/>
+      <c r="C27" s="157"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="161"/>
+      <c r="C28" s="157"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="161"/>
+      <c r="C29" s="157"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="183" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="169"/>
+      <c r="C30" s="184"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="165"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="180"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
@@ -4349,37 +4349,37 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="161"/>
+      <c r="C34" s="157"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="160" t="s">
+      <c r="B35" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="161"/>
+      <c r="C35" s="157"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="160" t="s">
+      <c r="B36" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="161"/>
+      <c r="C36" s="157"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="166" t="s">
+      <c r="B37" s="181" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="167"/>
+      <c r="C37" s="182"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="163"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="171"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -4389,97 +4389,97 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="157"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="159"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="177"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="155" t="s">
+      <c r="B41" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="156"/>
+      <c r="C41" s="178"/>
       <c r="D41" s="55"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="155" t="s">
+      <c r="B42" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="156"/>
+      <c r="C42" s="178"/>
       <c r="D42" s="55"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="155" t="s">
+      <c r="B43" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="156"/>
+      <c r="C43" s="178"/>
       <c r="D43" s="55"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="155" t="s">
+      <c r="B44" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="156"/>
+      <c r="C44" s="178"/>
       <c r="D44" s="56"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="156"/>
+      <c r="C45" s="178"/>
       <c r="D45" s="55"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="157"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="159"/>
+      <c r="B46" s="175"/>
+      <c r="C46" s="176"/>
+      <c r="D46" s="177"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="155" t="s">
+      <c r="B47" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="156"/>
+      <c r="C47" s="178"/>
       <c r="D47" s="55"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="156"/>
+      <c r="C48" s="178"/>
       <c r="D48" s="55"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="155" t="s">
+      <c r="B49" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="156"/>
+      <c r="C49" s="178"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="155" t="s">
+      <c r="B50" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="156"/>
+      <c r="C50" s="178"/>
       <c r="D50" s="56"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="156"/>
+      <c r="C51" s="178"/>
       <c r="D51" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:D40"/>
@@ -4494,16 +4494,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4550,11 +4550,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -4569,16 +4569,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="201" t="s">
+      <c r="G6" s="195" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="202"/>
-      <c r="I6" s="203"/>
-      <c r="V6" s="184" t="s">
+      <c r="H6" s="196"/>
+      <c r="I6" s="197"/>
+      <c r="V6" s="198" t="s">
         <v>236</v>
       </c>
-      <c r="W6" s="185"/>
-      <c r="X6" s="186"/>
+      <c r="W6" s="199"/>
+      <c r="X6" s="200"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -4593,18 +4593,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="187">
+      <c r="G8" s="186">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="189"/>
-      <c r="V8" s="187" t="e">
+      <c r="H8" s="187"/>
+      <c r="I8" s="188"/>
+      <c r="V8" s="186" t="e">
         <f>AVERAGE(K43:K50)*5</f>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="188"/>
-      <c r="X8" s="189"/>
+      <c r="W8" s="187"/>
+      <c r="X8" s="188"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
@@ -4612,12 +4612,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="192"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="192"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="191"/>
+      <c r="V9" s="189"/>
+      <c r="W9" s="190"/>
+      <c r="X9" s="191"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -4625,12 +4625,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="192"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="192"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="191"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="191"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -4638,19 +4638,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="195"/>
-      <c r="V11" s="193"/>
-      <c r="W11" s="194"/>
-      <c r="X11" s="195"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="194"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="194"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -4674,11 +4674,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
@@ -4731,18 +4731,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="197" t="s">
+      <c r="D41" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="199"/>
-      <c r="H41" s="197" t="s">
+      <c r="E41" s="203"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="202" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="198"/>
-      <c r="J41" s="198"/>
-      <c r="K41" s="199"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="203"/>
+      <c r="K41" s="204"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
@@ -5052,15 +5052,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -5101,8 +5101,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="39" zoomScaleNormal="39" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="39" zoomScaleNormal="39" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5122,16 +5122,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -5164,11 +5164,11 @@
       <c r="G3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="205" t="s">
+      <c r="H3" s="206" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="205"/>
-      <c r="J3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="153" t="s">
         <v>216</v>
       </c>
@@ -5184,9 +5184,9 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="209"/>
       <c r="K4" s="154"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
@@ -5223,7 +5223,7 @@
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
     </row>
-    <row r="6" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>250</v>
       </c>
@@ -5248,16 +5248,10 @@
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="I6" s="123" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
-"Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
-        <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
-      </c>
-      <c r="J6" s="123" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
+      <c r="J6" s="123"/>
       <c r="K6" s="65"/>
     </row>
     <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
@@ -5526,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="210" t="str">
+      <c r="H16" s="155" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
@@ -5633,7 +5627,7 @@
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
     </row>
-    <row r="21" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
         <v>9</v>
       </c>
@@ -7598,8 +7592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7618,16 +7612,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
       <c r="J1" s="152"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
@@ -7661,11 +7655,11 @@
       <c r="G3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="205" t="s">
+      <c r="H3" s="206" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="205"/>
-      <c r="J3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="80" t="s">
         <v>216</v>
       </c>
@@ -7681,8 +7675,8 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="209"/>
       <c r="J4" s="154"/>
       <c r="K4" s="30"/>
     </row>
@@ -7738,17 +7732,11 @@
 "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="123" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
-"Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
-        <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
-      </c>
-      <c r="J6" s="90" t="str">
+      <c r="I6" s="90" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
+      <c r="J6" s="90"/>
       <c r="K6" s="65"/>
     </row>
     <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
@@ -9589,8 +9577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10083,10 +10071,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="209"/>
+      <c r="B1" s="210"/>
       <c r="C1" s="104"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>

--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pec1be7\git\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B31EA-F0B7-4AB2-BA8A-68657F1E989E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de Bord" sheetId="6" r:id="rId1"/>
@@ -28,10 +27,10 @@
     <definedName name="VERSION_MASVS">'Tableau de Bord'!$D$11</definedName>
     <definedName name="VERSION_MSTG">'Tableau de Bord'!$D$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1263,7 +1262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
@@ -2272,7 +2271,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2674,13 +2673,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2715,12 +2750,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2730,35 +2759,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2806,18 +2817,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2836,69 +2835,70 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9"/>
   </cellXfs>
   <cellStyles count="62">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2932,7 +2932,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3160,7 +3160,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918959216"/>
@@ -3213,7 +3213,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918956896"/>
@@ -3260,7 +3260,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3290,7 +3290,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3304,7 +3304,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3512,7 +3512,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920829984"/>
@@ -3565,7 +3565,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920827664"/>
@@ -3612,7 +3612,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3642,7 +3642,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4110,7 +4110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D51"/>
   <sheetViews>
@@ -4118,94 +4118,94 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.296875" customWidth="1"/>
+    <col min="3" max="3" width="43.796875" customWidth="1"/>
     <col min="4" max="4" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="160" t="s">
+    <row r="1" spans="2:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="162"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="163"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="163"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="163"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-    </row>
-    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="166"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="168"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="169" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="175"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="177"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="175"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="177"/>
+    </row>
+    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="178"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="B9" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="163"/>
+      <c r="D9" s="164"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="130" t="s">
         <v>198</v>
       </c>
       <c r="C10" s="131"/>
       <c r="D10" s="132"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="174" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="184" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="174"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="133" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="174" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="184" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="174"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="134" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="172" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="182" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="96" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="77" t="s">
         <v>235</v>
       </c>
@@ -4215,271 +4215,271 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="97" t="s">
         <v>237</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="100"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="97" t="s">
         <v>199</v>
       </c>
       <c r="C16" s="94"/>
       <c r="D16" s="98"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="77" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="96"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="158" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="156" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="159"/>
+      <c r="C18" s="171"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="156" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="157"/>
+      <c r="C19" s="162"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="156" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="161" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="157"/>
+      <c r="C20" s="162"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="156" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="157"/>
+      <c r="C21" s="162"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="156" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="161" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="157"/>
+      <c r="C22" s="162"/>
       <c r="D22" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="156" t="s">
+    <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="157"/>
+      <c r="C23" s="162"/>
       <c r="D23" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="76" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="156" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="157"/>
+      <c r="C27" s="162"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="156" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="157"/>
+      <c r="C28" s="162"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="156" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="157"/>
+      <c r="C29" s="162"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="183" t="s">
+    <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="169" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="184"/>
+      <c r="C30" s="170"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="180"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="166"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="76" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="156" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="157"/>
+      <c r="C34" s="162"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="156" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="157"/>
+      <c r="C35" s="162"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="156" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="157"/>
+      <c r="C36" s="162"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="181" t="s">
+    <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="167" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="182"/>
+      <c r="C37" s="168"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="171"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="164"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="175"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="177"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="158" t="s">
+    <row r="40" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="158"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="160"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="178"/>
+      <c r="C41" s="157"/>
       <c r="D41" s="55"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="158" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="178"/>
+      <c r="C42" s="157"/>
       <c r="D42" s="55"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="158" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="178"/>
+      <c r="C43" s="157"/>
       <c r="D43" s="55"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="158" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="178"/>
+      <c r="C44" s="157"/>
       <c r="D44" s="56"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="158" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="178"/>
+      <c r="C45" s="157"/>
       <c r="D45" s="55"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="175"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="177"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="158" t="s">
+    <row r="46" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="158"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="160"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="178"/>
+      <c r="C47" s="157"/>
       <c r="D47" s="55"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="158" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="178"/>
+      <c r="C48" s="157"/>
       <c r="D48" s="55"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="158" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="178"/>
+      <c r="C49" s="157"/>
       <c r="D49" s="55"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="158" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="178"/>
+      <c r="C50" s="157"/>
       <c r="D50" s="56"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="158" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="178"/>
+      <c r="C51" s="157"/>
       <c r="D51" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:D40"/>
@@ -4494,16 +4494,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4512,7 +4512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X50"/>
   <sheetViews>
@@ -4520,20 +4520,20 @@
       <selection activeCell="V6" sqref="V6:X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54.796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="6" style="5" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.08203125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="5"/>
+    <col min="5" max="5" width="4.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.796875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
       <c r="C2" s="22" t="s">
         <v>88</v>
@@ -4542,82 +4542,82 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="15" x14ac:dyDescent="0.35">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-    </row>
-    <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+    </row>
+    <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="2:24" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:24" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="195" t="s">
+      <c r="G6" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="196"/>
-      <c r="I6" s="197"/>
-      <c r="V6" s="198" t="s">
+      <c r="H6" s="200"/>
+      <c r="I6" s="201"/>
+      <c r="V6" s="202" t="s">
         <v>236</v>
       </c>
-      <c r="W6" s="199"/>
-      <c r="X6" s="200"/>
-    </row>
-    <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W6" s="203"/>
+      <c r="X6" s="204"/>
+    </row>
+    <row r="7" spans="2:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="186">
+      <c r="G8" s="190">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="188"/>
-      <c r="V8" s="186" t="e">
+      <c r="H8" s="191"/>
+      <c r="I8" s="192"/>
+      <c r="V8" s="190" t="e">
         <f>AVERAGE(K43:K50)*5</f>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="187"/>
-      <c r="X8" s="188"/>
-    </row>
-    <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W8" s="191"/>
+      <c r="X8" s="192"/>
+    </row>
+    <row r="9" spans="2:24" ht="91.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="191"/>
-      <c r="V9" s="189"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="191"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="195"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -4625,12 +4625,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="191"/>
-      <c r="V10" s="189"/>
-      <c r="W10" s="190"/>
-      <c r="X10" s="191"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="195"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="195"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -4638,113 +4638,113 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="194"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="194"/>
-    </row>
-    <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="201"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="198"/>
+      <c r="V11" s="196"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="198"/>
+    </row>
+    <row r="12" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="185"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+    </row>
+    <row r="13" spans="2:24" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" ht="15" x14ac:dyDescent="0.35">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="201"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="185"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+    </row>
+    <row r="17" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23" s="18"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C24" s="18"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25" s="18"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C26" s="18"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C28" s="18"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29" s="18"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C30" s="18"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C31" s="18"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="18"/>
     </row>
-    <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="202" t="s">
+    <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D41" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="202" t="s">
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="203"/>
-      <c r="J41" s="203"/>
-      <c r="K41" s="204"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="188"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D42" s="17" t="s">
         <v>67</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C43" s="11" t="s">
         <v>231</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C44" s="11" t="s">
         <v>195</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
         <v>116</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C46" s="11" t="s">
         <v>89</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C47" s="11" t="s">
         <v>117</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C48" s="11" t="s">
         <v>234</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
         <v>196</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C50" s="11" t="s">
         <v>90</v>
       </c>
@@ -5052,6 +5052,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -5059,8 +5061,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -5097,31 +5097,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="39" zoomScaleNormal="39" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" zoomScale="39" zoomScaleNormal="39" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="96.58203125" style="54" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="101.58203125" customWidth="1"/>
-    <col min="9" max="9" width="83.58203125" customWidth="1"/>
-    <col min="10" max="10" width="71.25" customWidth="1"/>
-    <col min="11" max="11" width="58.08203125" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" customWidth="1"/>
+    <col min="4" max="4" width="96.59765625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="101.59765625" customWidth="1"/>
+    <col min="9" max="9" width="83.59765625" customWidth="1"/>
+    <col min="10" max="10" width="71.19921875" customWidth="1"/>
+    <col min="11" max="11" width="58.09765625" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="18" x14ac:dyDescent="0.3">
       <c r="B1" s="205" t="s">
         <v>118</v>
       </c>
@@ -5133,7 +5133,7 @@
       <c r="H1" s="205"/>
       <c r="I1" s="205"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="52"/>
@@ -5145,7 +5145,7 @@
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="J4" s="209"/>
       <c r="K4" s="154"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>250</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="J6" s="123"/>
       <c r="K6" s="65"/>
     </row>
-    <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>251</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>253</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>252</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
     </row>
-    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>254</v>
       </c>
@@ -5366,7 +5366,7 @@
       <c r="J10" s="65"/>
       <c r="K10" s="65"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="K11" s="65"/>
     </row>
-    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>255</v>
       </c>
@@ -5431,7 +5431,7 @@
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>256</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="J13" s="65"/>
       <c r="K13" s="65"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
@@ -5487,7 +5487,7 @@
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="J16" s="65"/>
       <c r="K16" s="65"/>
     </row>
-    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="49" t="s">
         <v>40</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="49" t="s">
         <v>8</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="49" t="s">
         <v>41</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="49" t="s">
         <v>9</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="49" t="s">
         <v>10</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="49" t="s">
         <v>11</v>
       </c>
@@ -5702,7 +5702,7 @@
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="49" t="s">
         <v>12</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="J24" s="65"/>
       <c r="K24" s="65"/>
     </row>
-    <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="49" t="s">
         <v>42</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="J25" s="65"/>
       <c r="K25" s="65"/>
     </row>
-    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="49" t="s">
         <v>43</v>
       </c>
@@ -5780,7 +5780,7 @@
       <c r="J26" s="65"/>
       <c r="K26" s="65"/>
     </row>
-    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="49" t="s">
         <v>13</v>
       </c>
@@ -5805,7 +5805,7 @@
       <c r="J27" s="65"/>
       <c r="K27" s="65"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
@@ -5821,7 +5821,7 @@
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="49" t="s">
         <v>15</v>
       </c>
@@ -5849,7 +5849,7 @@
       <c r="J29" s="65"/>
       <c r="K29" s="65"/>
     </row>
-    <row r="30" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="49" t="s">
         <v>16</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="J30" s="65"/>
       <c r="K30" s="65"/>
     </row>
-    <row r="31" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="49" t="s">
         <v>17</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
     </row>
-    <row r="32" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="49" t="s">
         <v>18</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="49" t="s">
         <v>19</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="J33" s="65"/>
       <c r="K33" s="65"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="49" t="s">
         <v>20</v>
       </c>
@@ -5983,7 +5983,7 @@
       <c r="J34" s="65"/>
       <c r="K34" s="65"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
     </row>
-    <row r="36" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="49" t="s">
         <v>22</v>
       </c>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="K36" s="65"/>
     </row>
-    <row r="37" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="49" t="s">
         <v>44</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="J37" s="65"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="49" t="s">
         <v>45</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="J38" s="65"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="49" t="s">
         <v>23</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="49" t="s">
         <v>24</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="49" t="s">
         <v>46</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="49" t="s">
         <v>47</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
     </row>
-    <row r="43" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B43" s="49" t="s">
         <v>25</v>
       </c>
@@ -6207,7 +6207,7 @@
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="49" t="s">
         <v>26</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="J44" s="65"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="49" t="s">
         <v>27</v>
       </c>
@@ -6257,7 +6257,7 @@
       <c r="J45" s="65"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="49" t="s">
         <v>80</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="J46" s="65"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B48" s="49" t="s">
         <v>29</v>
       </c>
@@ -6323,7 +6323,7 @@
       <c r="J48" s="65"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B49" s="49" t="s">
         <v>48</v>
       </c>
@@ -6348,7 +6348,7 @@
       <c r="J49" s="65"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="49" t="s">
         <v>30</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="J50" s="123"/>
       <c r="K50" s="123"/>
     </row>
-    <row r="51" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B51" s="49" t="s">
         <v>49</v>
       </c>
@@ -6394,14 +6394,14 @@
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)</v>
       </c>
-      <c r="I51" s="90" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration settings (MSTG-NETWORK-4)")</f>
-        <v>Testing the Network Security Configuration settings (MSTG-NETWORK-4)</v>
+      <c r="I51" s="211" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration Settings (MSTG-NETWORK-4)")</f>
+        <v>Testing the Network Security Configuration Settings (MSTG-NETWORK-4)</v>
       </c>
       <c r="J51" s="65"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="49" t="s">
         <v>31</v>
       </c>
@@ -6426,7 +6426,7 @@
       <c r="J52" s="65"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="49" t="s">
         <v>257</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="J53" s="65"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
@@ -6467,7 +6467,7 @@
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="49" t="s">
         <v>50</v>
       </c>
@@ -6492,7 +6492,7 @@
       <c r="J55" s="65"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B56" s="49" t="s">
         <v>51</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="J56" s="65"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="49" t="s">
         <v>52</v>
       </c>
@@ -6545,7 +6545,7 @@
       <c r="J57" s="65"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>53</v>
       </c>
@@ -6570,7 +6570,7 @@
       <c r="J58" s="65"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="49" t="s">
         <v>54</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="J59" s="65"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B60" s="49" t="s">
         <v>55</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="J60" s="65"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" s="49" t="s">
         <v>258</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="J61" s="65"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="49" t="s">
         <v>259</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="J62" s="65"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
     </row>
-    <row r="64" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="49" t="s">
         <v>56</v>
       </c>
@@ -6711,7 +6711,7 @@
       <c r="J64" s="65"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="49" t="s">
         <v>34</v>
       </c>
@@ -6736,7 +6736,7 @@
       <c r="J65" s="65"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="49" t="s">
         <v>57</v>
       </c>
@@ -6761,7 +6761,7 @@
       <c r="J66" s="65"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="49" t="s">
         <v>58</v>
       </c>
@@ -6786,7 +6786,7 @@
       <c r="J67" s="65"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B68" s="49" t="s">
         <v>59</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="J68" s="65"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="49" t="s">
         <v>35</v>
       </c>
@@ -6836,7 +6836,7 @@
       <c r="J69" s="65"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="49" t="s">
         <v>36</v>
       </c>
@@ -6861,7 +6861,7 @@
       <c r="J70" s="65"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="49" t="s">
         <v>37</v>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="J71" s="65"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B72" s="49" t="s">
         <v>81</v>
       </c>
@@ -6911,7 +6911,7 @@
       <c r="J72" s="65"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="37"/>
       <c r="C73" s="39"/>
       <c r="D73" s="38"/>
@@ -6923,7 +6923,7 @@
       <c r="J73" s="40"/>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="42"/>
@@ -6935,7 +6935,7 @@
       <c r="J74" s="41"/>
       <c r="K74" s="41"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="50"/>
@@ -6947,7 +6947,7 @@
       <c r="J75" s="41"/>
       <c r="K75" s="41"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="42"/>
@@ -6959,7 +6959,7 @@
       <c r="J76" s="41"/>
       <c r="K76" s="41"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="82" t="s">
         <v>217</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="J77" s="41"/>
       <c r="K77" s="41"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="84" t="s">
         <v>220</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="J78" s="41"/>
       <c r="K78" s="41"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="83" t="s">
         <v>179</v>
       </c>
@@ -7005,7 +7005,7 @@
       <c r="J79" s="41"/>
       <c r="K79" s="41"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="83" t="s">
         <v>180</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="J80" s="41"/>
       <c r="K80" s="41"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="44" t="s">
         <v>63</v>
       </c>
@@ -7037,7 +7037,7 @@
       <c r="J81" s="41"/>
       <c r="K81" s="41"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
       <c r="D82" s="42"/>
@@ -7049,7 +7049,7 @@
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
@@ -7061,7 +7061,7 @@
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
       <c r="D84" s="42"/>
@@ -7073,7 +7073,7 @@
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
       <c r="D85" s="53"/>
@@ -7092,10 +7092,10 @@
     <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G27 G5:G14 G29:G34 G36:G46 G48:G53 G55:G62 G64:G72" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G27 G5:G14 G29:G34 G36:G46 G48:G53 G55:G62 G64:G72">
       <formula1>$B$79:$B$81</formula1>
     </dataValidation>
   </dataValidations>
@@ -7105,7 +7105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:H29"/>
   <sheetViews>
@@ -7113,19 +7113,19 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" customWidth="1"/>
+    <col min="2" max="2" width="7.296875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="93.33203125" customWidth="1"/>
+    <col min="4" max="4" width="93.296875" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.25" customWidth="1"/>
-    <col min="8" max="8" width="30.58203125" customWidth="1"/>
+    <col min="6" max="6" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.19921875" customWidth="1"/>
+    <col min="8" max="8" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>98</v>
       </c>
@@ -7136,7 +7136,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -7145,7 +7145,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="67" t="s">
         <v>0</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="69"/>
       <c r="C4" s="146"/>
       <c r="D4" s="70" t="s">
@@ -7177,7 +7177,7 @@
       <c r="G4" s="70"/>
       <c r="H4" s="70"/>
     </row>
-    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="71" t="s">
         <v>260</v>
       </c>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="H5" s="72"/>
     </row>
-    <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="71" t="s">
         <v>261</v>
       </c>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="H6" s="72"/>
     </row>
-    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="71" t="s">
         <v>262</v>
       </c>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="H7" s="72"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="71" t="s">
         <v>263</v>
       </c>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="H8" s="72"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="71" t="s">
         <v>264</v>
       </c>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="H9" s="72"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="71" t="s">
         <v>265</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="H10" s="72"/>
     </row>
-    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="71" t="s">
         <v>266</v>
       </c>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="H11" s="72"/>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="71" t="s">
         <v>267</v>
       </c>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="H12" s="72"/>
     </row>
-    <row r="13" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="71" t="s">
         <v>268</v>
       </c>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="H13" s="72"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="69"/>
       <c r="C14" s="146"/>
       <c r="D14" s="70" t="s">
@@ -7384,7 +7384,7 @@
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="75" t="s">
         <v>60</v>
       </c>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="H15" s="72"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="69"/>
       <c r="C16" s="146"/>
       <c r="D16" s="70" t="s">
@@ -7417,7 +7417,7 @@
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
     </row>
-    <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="71" t="s">
         <v>269</v>
       </c>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="71" t="s">
         <v>270</v>
       </c>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="H18" s="72"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="67"/>
       <c r="C19" s="145"/>
       <c r="D19" s="68"/>
@@ -7469,7 +7469,7 @@
       <c r="G19" s="67"/>
       <c r="H19" s="67"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -7478,7 +7478,7 @@
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -7487,7 +7487,7 @@
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="82" t="s">
         <v>217</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="84" t="s">
         <v>220</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="83" t="s">
         <v>179</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="83" t="s">
         <v>180</v>
       </c>
@@ -7537,7 +7537,7 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>63</v>
       </c>
@@ -7550,7 +7550,7 @@
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -7559,7 +7559,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -7568,7 +7568,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -7579,7 +7579,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F18 F15 F5:F13" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F18 F15 F5:F13">
       <formula1>$B$24:$B$26</formula1>
     </dataValidation>
   </dataValidations>
@@ -7589,29 +7589,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="96.58203125" style="54" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="91.58203125" customWidth="1"/>
-    <col min="9" max="10" width="75.4140625" customWidth="1"/>
-    <col min="11" max="11" width="47.9140625" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" customWidth="1"/>
+    <col min="4" max="4" width="96.59765625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="91.59765625" customWidth="1"/>
+    <col min="9" max="10" width="75.3984375" customWidth="1"/>
+    <col min="11" max="11" width="47.8984375" customWidth="1"/>
+    <col min="12" max="13" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="18" x14ac:dyDescent="0.3">
       <c r="B1" s="205" t="s">
         <v>194</v>
       </c>
@@ -7624,7 +7624,7 @@
       <c r="I1" s="205"/>
       <c r="J1" s="152"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="52"/>
@@ -7636,7 +7636,7 @@
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="J4" s="154"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>250</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="65"/>
     </row>
-    <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>251</v>
       </c>
@@ -7767,7 +7767,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>253</v>
       </c>
@@ -7795,7 +7795,7 @@
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>252</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
     </row>
-    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>254</v>
       </c>
@@ -7851,7 +7851,7 @@
       <c r="J10" s="65"/>
       <c r="K10" s="65"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
@@ -7885,7 +7885,7 @@
       <c r="J11" s="123"/>
       <c r="K11" s="65"/>
     </row>
-    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>255</v>
       </c>
@@ -7913,7 +7913,7 @@
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>256</v>
       </c>
@@ -7941,7 +7941,7 @@
       <c r="J13" s="65"/>
       <c r="K13" s="65"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
@@ -7985,7 +7985,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
@@ -8010,7 +8010,7 @@
       <c r="J16" s="65"/>
       <c r="K16" s="65"/>
     </row>
-    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="49" t="s">
         <v>40</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="49" t="s">
         <v>8</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="49" t="s">
         <v>41</v>
       </c>
@@ -8106,7 +8106,7 @@
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="49" t="s">
         <v>9</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="49" t="s">
         <v>10</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="49" t="s">
         <v>11</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="49" t="s">
         <v>12</v>
       </c>
@@ -8206,7 +8206,7 @@
       <c r="J24" s="65"/>
       <c r="K24" s="65"/>
     </row>
-    <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="49" t="s">
         <v>42</v>
       </c>
@@ -8231,7 +8231,7 @@
       <c r="J25" s="65"/>
       <c r="K25" s="65"/>
     </row>
-    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="49" t="s">
         <v>43</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="J26" s="65"/>
       <c r="K26" s="65"/>
     </row>
-    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="49" t="s">
         <v>13</v>
       </c>
@@ -8281,7 +8281,7 @@
       <c r="J27" s="65"/>
       <c r="K27" s="65"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
@@ -8297,7 +8297,7 @@
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="49" t="s">
         <v>15</v>
       </c>
@@ -8322,7 +8322,7 @@
       <c r="J29" s="65"/>
       <c r="K29" s="65"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="49" t="s">
         <v>16</v>
       </c>
@@ -8347,7 +8347,7 @@
       <c r="J30" s="65"/>
       <c r="K30" s="65"/>
     </row>
-    <row r="31" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="49" t="s">
         <v>17</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
     </row>
-    <row r="32" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="49" t="s">
         <v>18</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="49" t="s">
         <v>19</v>
       </c>
@@ -8422,7 +8422,7 @@
       <c r="J33" s="65"/>
       <c r="K33" s="65"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="49" t="s">
         <v>20</v>
       </c>
@@ -8447,7 +8447,7 @@
       <c r="J34" s="65"/>
       <c r="K34" s="65"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
@@ -8463,7 +8463,7 @@
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
     </row>
-    <row r="36" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="49" t="s">
         <v>22</v>
       </c>
@@ -8491,7 +8491,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="65"/>
     </row>
-    <row r="37" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="49" t="s">
         <v>44</v>
       </c>
@@ -8516,7 +8516,7 @@
       <c r="J37" s="65"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="49" t="s">
         <v>45</v>
       </c>
@@ -8545,7 +8545,7 @@
       <c r="K38" s="65"/>
       <c r="L38" s="51"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="49" t="s">
         <v>23</v>
       </c>
@@ -8567,7 +8567,7 @@
       <c r="K39" s="65"/>
       <c r="L39" s="51"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="49" t="s">
         <v>24</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="49" t="s">
         <v>46</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="J41" s="90"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="49" t="s">
         <v>47</v>
       </c>
@@ -8645,7 +8645,7 @@
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
     </row>
-    <row r="43" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B43" s="49" t="s">
         <v>25</v>
       </c>
@@ -8670,7 +8670,7 @@
       <c r="J43" s="90"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="49" t="s">
         <v>26</v>
       </c>
@@ -8695,7 +8695,7 @@
       <c r="J44" s="65"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="49" t="s">
         <v>27</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="J45" s="65"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="49" t="s">
         <v>80</v>
       </c>
@@ -8748,7 +8748,7 @@
       <c r="J46" s="65"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
@@ -8764,7 +8764,7 @@
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B48" s="49" t="s">
         <v>29</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="J48" s="123"/>
       <c r="K48" s="123"/>
     </row>
-    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B49" s="49" t="s">
         <v>48</v>
       </c>
@@ -8817,7 +8817,7 @@
       <c r="J49" s="123"/>
       <c r="K49" s="123"/>
     </row>
-    <row r="50" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="49" t="s">
         <v>30</v>
       </c>
@@ -8842,7 +8842,7 @@
       <c r="J50" s="65"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B51" s="49" t="s">
         <v>49</v>
       </c>
@@ -8867,7 +8867,7 @@
       <c r="J51" s="65"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="49" t="s">
         <v>31</v>
       </c>
@@ -8892,7 +8892,7 @@
       <c r="J52" s="65"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="49" t="s">
         <v>257</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="J53" s="65"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B55" s="49" t="s">
         <v>50</v>
       </c>
@@ -8961,7 +8961,7 @@
       <c r="J55" s="65"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B56" s="49" t="s">
         <v>51</v>
       </c>
@@ -8986,7 +8986,7 @@
       <c r="J56" s="65"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="49" t="s">
         <v>52</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="J57" s="65"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="2:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>53</v>
       </c>
@@ -9039,7 +9039,7 @@
       <c r="J58" s="65"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="49" t="s">
         <v>54</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="J59" s="65"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B60" s="49" t="s">
         <v>55</v>
       </c>
@@ -9089,7 +9089,7 @@
       <c r="J60" s="65"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" s="49" t="s">
         <v>258</v>
       </c>
@@ -9114,7 +9114,7 @@
       <c r="J61" s="65"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B62" s="49" t="s">
         <v>259</v>
       </c>
@@ -9139,7 +9139,7 @@
       <c r="J62" s="65"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="49" t="s">
         <v>56</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="J64" s="65"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="49" t="s">
         <v>34</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="J65" s="65"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="49" t="s">
         <v>57</v>
       </c>
@@ -9230,7 +9230,7 @@
       <c r="J66" s="65"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="49" t="s">
         <v>58</v>
       </c>
@@ -9255,7 +9255,7 @@
       <c r="J67" s="65"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B68" s="49" t="s">
         <v>59</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="J68" s="65"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="49" t="s">
         <v>35</v>
       </c>
@@ -9305,7 +9305,7 @@
       <c r="J69" s="65"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="49" t="s">
         <v>36</v>
       </c>
@@ -9330,7 +9330,7 @@
       <c r="J70" s="65"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="49" t="s">
         <v>37</v>
       </c>
@@ -9355,7 +9355,7 @@
       <c r="J71" s="65"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B72" s="49" t="s">
         <v>81</v>
       </c>
@@ -9380,7 +9380,7 @@
       <c r="J72" s="65"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="37"/>
       <c r="C73" s="39"/>
       <c r="D73" s="38"/>
@@ -9392,7 +9392,7 @@
       <c r="J73" s="40"/>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="42"/>
@@ -9404,7 +9404,7 @@
       <c r="J74" s="41"/>
       <c r="K74" s="41"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="50"/>
@@ -9416,7 +9416,7 @@
       <c r="J75" s="41"/>
       <c r="K75" s="41"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="42"/>
@@ -9428,7 +9428,7 @@
       <c r="J76" s="41"/>
       <c r="K76" s="41"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="82" t="s">
         <v>217</v>
       </c>
@@ -9442,7 +9442,7 @@
       <c r="J77" s="41"/>
       <c r="K77" s="41"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="84" t="s">
         <v>220</v>
       </c>
@@ -9458,7 +9458,7 @@
       <c r="J78" s="41"/>
       <c r="K78" s="41"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="83" t="s">
         <v>179</v>
       </c>
@@ -9474,7 +9474,7 @@
       <c r="J79" s="41"/>
       <c r="K79" s="41"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="83" t="s">
         <v>180</v>
       </c>
@@ -9490,7 +9490,7 @@
       <c r="J80" s="41"/>
       <c r="K80" s="41"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="44" t="s">
         <v>63</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="J81" s="41"/>
       <c r="K81" s="41"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
       <c r="D82" s="42"/>
@@ -9518,7 +9518,7 @@
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
@@ -9530,7 +9530,7 @@
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
       <c r="D84" s="42"/>
@@ -9542,7 +9542,7 @@
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
       <c r="D85" s="53"/>
@@ -9561,10 +9561,10 @@
     <mergeCell ref="H3:J3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G34 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62 G16:G27" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G34 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62 G16:G27">
       <formula1>$B$79:$B$81</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9574,26 +9574,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="93.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
+    <col min="4" max="4" width="93.296875" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="61.83203125" customWidth="1"/>
-    <col min="8" max="8" width="30.58203125" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" customWidth="1"/>
+    <col min="7" max="7" width="61.796875" customWidth="1"/>
+    <col min="8" max="8" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>103</v>
       </c>
@@ -9604,7 +9604,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -9613,7 +9613,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="67"/>
       <c r="C3" s="145" t="s">
         <v>288</v>
@@ -9634,7 +9634,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="69" t="s">
         <v>0</v>
       </c>
@@ -9647,7 +9647,7 @@
       <c r="G4" s="70"/>
       <c r="H4" s="70"/>
     </row>
-    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="71" t="s">
         <v>260</v>
       </c>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="H5" s="72"/>
     </row>
-    <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="71" t="s">
         <v>261</v>
       </c>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="H6" s="72"/>
     </row>
-    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="71" t="s">
         <v>262</v>
       </c>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="H7" s="72"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="71" t="s">
         <v>263</v>
       </c>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="H8" s="72"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="71" t="s">
         <v>264</v>
       </c>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="H9" s="72"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="71" t="s">
         <v>265</v>
       </c>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="H10" s="72"/>
     </row>
-    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="71" t="s">
         <v>266</v>
       </c>
@@ -9797,7 +9797,7 @@
       </c>
       <c r="H11" s="72"/>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="71" t="s">
         <v>267</v>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="H12" s="72"/>
     </row>
-    <row r="13" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="71" t="s">
         <v>268</v>
       </c>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="H13" s="72"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="69"/>
       <c r="C14" s="146"/>
       <c r="D14" s="70" t="s">
@@ -9850,7 +9850,7 @@
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="75" t="s">
         <v>60</v>
       </c>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="H15" s="72"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="69"/>
       <c r="C16" s="146"/>
       <c r="D16" s="70" t="s">
@@ -9883,7 +9883,7 @@
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
     </row>
-    <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="71" t="s">
         <v>269</v>
       </c>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="71" t="s">
         <v>270</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="H18" s="72"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="67"/>
       <c r="C19" s="145"/>
       <c r="D19" s="68"/>
@@ -9935,7 +9935,7 @@
       <c r="G19" s="67"/>
       <c r="H19" s="67"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -9944,7 +9944,7 @@
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -9953,7 +9953,7 @@
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="82" t="s">
         <v>217</v>
       </c>
@@ -9964,7 +9964,7 @@
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="84" t="s">
         <v>220</v>
       </c>
@@ -9977,7 +9977,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="83" t="s">
         <v>179</v>
       </c>
@@ -9990,7 +9990,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="83" t="s">
         <v>180</v>
       </c>
@@ -10003,7 +10003,7 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>63</v>
       </c>
@@ -10016,7 +10016,7 @@
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -10025,7 +10025,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -10034,7 +10034,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -10045,7 +10045,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F18 F15 F5:F13" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F18 F15 F5:F13">
       <formula1>$B$24:$B$26</formula1>
     </dataValidation>
   </dataValidations>
@@ -10055,7 +10055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -10063,14 +10063,14 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.58203125" customWidth="1"/>
-    <col min="5" max="5" width="104.25" customWidth="1"/>
+    <col min="1" max="1" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="104.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="210" t="s">
         <v>106</v>
       </c>
@@ -10079,7 +10079,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="85" t="s">
         <v>111</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>61</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
         <v>62</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>73</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>74</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>62</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
         <v>74</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
         <v>62</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
         <v>62</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
         <v>62</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
         <v>62</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
         <v>104</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
         <v>112</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="101" t="s">
         <v>244</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
         <v>104</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="110" t="s">
         <v>244</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="126" t="s">
         <v>104</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="109" t="s">
         <v>104</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="109" t="s">
         <v>104</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="51.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="109" t="s">
         <v>104</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="109" t="s">
         <v>104</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="109" t="s">
         <v>104</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="109" t="s">
         <v>104</v>
       </c>
